--- a/public/Plantillas/baremos.xlsx
+++ b/public/Plantillas/baremos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B1F1C-DA08-4DE1-BAD8-199AB06D0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D82279A-B2ED-46D4-988D-DF6A8F670B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1255,8 +1255,8 @@
   </sheetPr>
   <dimension ref="A1:R1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:M22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1597,10 +1597,7 @@
       <c r="A15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="18">
-        <f>R22</f>
-        <v>0</v>
-      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>

--- a/public/Plantillas/baremos.xlsx
+++ b/public/Plantillas/baremos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D82279A-B2ED-46D4-988D-DF6A8F670B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501019E8-0FA5-48E5-8B09-52643FBDBF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" tabRatio="820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baremos" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Carga Horaria:</t>
   </si>
@@ -172,24 +172,17 @@
     <t xml:space="preserve">TOTAL: </t>
   </si>
   <si>
-    <t>1 Carta Compromiso con el GAD PROVINCIAL SANTO DOMINGO DE LOS TSÁCHILAS.</t>
+    <t>Ciencias Computacionales</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carta Compromiso Luz de América.
-</t>
-  </si>
-  <si>
-    <t>1. Acta de designación Estudiantes de Tecnologías de la Información (1 estudiante)</t>
-  </si>
-  <si>
-    <t>Ciencias Computacionales</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -239,6 +232,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -471,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,6 +614,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,9 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -701,6 +707,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,16 +734,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>778329</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>278675</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>995136</xdr:rowOff>
+      <xdr:rowOff>1037863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>112939</xdr:colOff>
+      <xdr:colOff>902153</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -746,8 +758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5146222" y="11254922"/>
-          <a:ext cx="5593896" cy="2120900"/>
+          <a:off x="7082246" y="12467863"/>
+          <a:ext cx="5794193" cy="2109198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,112 +947,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>DE CIENCIAS DE LA COMPUTACIÓN</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-EC" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>645886</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1230087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>780143</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1434195</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="645886" y="12649201"/>
-          <a:ext cx="4357914" cy="1586594"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Santiago Miguel Ulloa Cortazar PhD.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-EC">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" b="1"/>
-            <a:t>DIRECTOR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" b="1" baseline="0"/>
-            <a:t> DEL PROYECTO</a:t>
           </a:r>
           <a:endParaRPr lang="es-EC" sz="1100" b="1"/>
         </a:p>
@@ -1255,8 +1161,8 @@
   </sheetPr>
   <dimension ref="A1:R1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:R11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1419,179 +1325,179 @@
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>48</v>
+      <c r="B9" s="48" t="s">
+        <v>45</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
     </row>
     <row r="10" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
     </row>
     <row r="15" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -1821,49 +1727,41 @@
       <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="50"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" s="6" customFormat="1" ht="209.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>45</v>
-      </c>
+      <c r="B23" s="52"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="55" t="s">
-        <v>46</v>
-      </c>
+      <c r="F23" s="55"/>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
       <c r="I23" s="57"/>
-      <c r="J23" s="58" t="s">
-        <v>46</v>
-      </c>
+      <c r="J23" s="58"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
       <c r="M23" s="60"/>
-      <c r="N23" s="61" t="s">
-        <v>47</v>
-      </c>
+      <c r="N23" s="61"/>
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="63"/>
@@ -1890,58 +1788,58 @@
       <c r="R24" s="12"/>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="47"/>
     </row>
     <row r="26" spans="1:18" s="6" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
     </row>
     <row r="27" spans="1:18" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="47"/>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
@@ -1950,18 +1848,18 @@
       <c r="R27" s="47"/>
     </row>
     <row r="28" spans="1:18" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="47"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -2012,7 +1910,9 @@
     <row r="31" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="79" t="s">
+        <v>46</v>
+      </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -21487,7 +21387,6 @@
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="A17:R17"/>
     <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A27:L27"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="B22:E22"/>
@@ -21498,6 +21397,7 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>

--- a/public/Plantillas/baremos.xlsx
+++ b/public/Plantillas/baremos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Tesis_Final_Version\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501019E8-0FA5-48E5-8B09-52643FBDBF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5228E9D2-7AEE-4181-B993-4B38DA597997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" tabRatio="820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,54 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -807,12 +807,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="es-EC" sz="1100"/>
-            <a:t>Ing.</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="es-EC" sz="1100" baseline="0"/>
-            <a:t> Verónica Isabel Martínez Cepeda, Mgtr.</a:t>
+            <a:t>Verónica Isabel Martínez Cepeda</a:t>
           </a:r>
           <a:endParaRPr lang="es-EC" sz="1100"/>
         </a:p>
@@ -915,13 +911,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-EC" sz="1100"/>
-            <a:t>Ing. Daniel Nuñez,</a:t>
+            <a:t>Daniel Nuñez</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1100" baseline="0"/>
-            <a:t> Mgtr.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-EC" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -1165,43 +1156,43 @@
       <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="3" customWidth="1"/>
-    <col min="2" max="17" width="18.88671875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="12.5546875" style="3"/>
+    <col min="1" max="1" width="42.7109375" style="3" customWidth="1"/>
+    <col min="2" max="17" width="18.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1217,7 +1208,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1236,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1264,7 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1301,7 +1292,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1321,185 +1312,185 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-    </row>
-    <row r="8" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+    </row>
+    <row r="8" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-    </row>
-    <row r="9" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+    </row>
+    <row r="9" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-    </row>
-    <row r="10" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+    </row>
+    <row r="10" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-    </row>
-    <row r="11" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+    </row>
+    <row r="11" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-    </row>
-    <row r="12" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+    </row>
+    <row r="12" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-    </row>
-    <row r="13" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+    </row>
+    <row r="13" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-    </row>
-    <row r="14" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+    </row>
+    <row r="14" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-    </row>
-    <row r="15" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+    </row>
+    <row r="15" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>39</v>
       </c>
@@ -1521,7 +1512,7 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1541,29 +1532,29 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
     </row>
-    <row r="17" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1583,37 +1574,37 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="12"/>
     </row>
-    <row r="19" spans="1:18" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70" t="s">
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73" t="s">
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="75"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="1:18" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1658,7 @@
       </c>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>8</v>
       </c>
@@ -1723,51 +1714,51 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" s="6" customFormat="1" ht="209.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="6" customFormat="1" ht="209.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="63"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="79"/>
       <c r="R23" s="47"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1787,27 +1778,27 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" s="6" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+    <row r="25" spans="1:18" s="6" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
       <c r="R25" s="47"/>
     </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="6" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
@@ -1827,19 +1818,19 @@
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
     </row>
-    <row r="27" spans="1:18" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+    <row r="27" spans="1:18" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="47"/>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
@@ -1847,19 +1838,19 @@
       <c r="Q27" s="47"/>
       <c r="R27" s="47"/>
     </row>
-    <row r="28" spans="1:18" s="6" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+    <row r="28" spans="1:18" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
       <c r="M28" s="47"/>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
@@ -1867,7 +1858,7 @@
       <c r="Q28" s="47"/>
       <c r="R28" s="47"/>
     </row>
-    <row r="29" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1887,7 +1878,7 @@
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1907,10 +1898,10 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
     </row>
-    <row r="31" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="48" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="12"/>
@@ -1929,7 +1920,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1949,7 +1940,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
     </row>
-    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1969,7 +1960,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1989,7 +1980,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2009,7 +2000,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2029,7 +2020,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2049,7 +2040,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2069,7 +2060,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2089,7 +2080,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2109,7 +2100,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2129,7 +2120,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2149,7 +2140,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2169,7 +2160,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2189,7 +2180,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2209,7 +2200,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2229,7 +2220,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2249,7 +2240,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2269,7 +2260,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2289,7 +2280,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2309,7 +2300,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2329,7 +2320,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2349,7 +2340,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2369,7 +2360,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2389,7 +2380,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2409,7 +2400,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2429,7 +2420,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2449,7 +2440,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2469,7 +2460,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2489,7 +2480,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2509,7 +2500,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2529,7 +2520,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2549,7 +2540,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2569,7 +2560,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2589,7 +2580,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2609,7 +2600,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2629,7 +2620,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2649,7 +2640,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2669,7 +2660,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2689,7 +2680,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2709,7 +2700,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2729,7 +2720,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2749,7 +2740,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2769,7 +2760,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2789,7 +2780,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2809,7 +2800,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2829,7 +2820,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2849,7 +2840,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2869,7 +2860,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2889,7 +2880,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2909,7 +2900,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2929,7 +2920,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2949,7 +2940,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2969,7 +2960,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2989,7 +2980,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3009,7 +3000,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3029,7 +3020,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3049,7 +3040,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3069,7 +3060,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3089,7 +3080,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3109,7 +3100,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3129,7 +3120,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3149,7 +3140,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3169,7 +3160,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3189,7 +3180,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3209,7 +3200,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3229,7 +3220,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3249,7 +3240,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3269,7 +3260,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3289,7 +3280,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3309,7 +3300,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3329,7 +3320,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3349,7 +3340,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3369,7 +3360,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3389,7 +3380,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3409,7 +3400,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3429,7 +3420,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3449,7 +3440,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3469,7 +3460,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3489,7 +3480,7 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3509,7 +3500,7 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3529,7 +3520,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3549,7 +3540,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
-    <row r="113" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3569,7 +3560,7 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3589,7 +3580,7 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3609,7 +3600,7 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3629,7 +3620,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3649,7 +3640,7 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
     </row>
-    <row r="118" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3669,7 +3660,7 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
     </row>
-    <row r="119" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3689,7 +3680,7 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
     </row>
-    <row r="120" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3709,7 +3700,7 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
     </row>
-    <row r="121" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3729,7 +3720,7 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
     </row>
-    <row r="122" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3749,7 +3740,7 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
     </row>
-    <row r="123" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3769,7 +3760,7 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
     </row>
-    <row r="124" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3789,7 +3780,7 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
     </row>
-    <row r="125" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3809,7 +3800,7 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
     </row>
-    <row r="126" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3829,7 +3820,7 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
     </row>
-    <row r="127" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3849,7 +3840,7 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
     </row>
-    <row r="128" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3869,7 +3860,7 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
     </row>
-    <row r="129" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3889,7 +3880,7 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
     </row>
-    <row r="130" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3909,7 +3900,7 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
     </row>
-    <row r="131" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -3929,7 +3920,7 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
     </row>
-    <row r="132" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3949,7 +3940,7 @@
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
     </row>
-    <row r="133" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -3969,7 +3960,7 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
     </row>
-    <row r="134" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3989,7 +3980,7 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
     </row>
-    <row r="135" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4009,7 +4000,7 @@
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
     </row>
-    <row r="136" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4029,7 +4020,7 @@
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
     </row>
-    <row r="137" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4049,7 +4040,7 @@
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
     </row>
-    <row r="138" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4069,7 +4060,7 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
     </row>
-    <row r="139" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4089,7 +4080,7 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
     </row>
-    <row r="140" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4109,7 +4100,7 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
     </row>
-    <row r="141" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4129,7 +4120,7 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
     </row>
-    <row r="142" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4149,7 +4140,7 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
     </row>
-    <row r="143" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4169,7 +4160,7 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
     </row>
-    <row r="144" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4189,7 +4180,7 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
     </row>
-    <row r="145" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4209,7 +4200,7 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
     </row>
-    <row r="146" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4229,7 +4220,7 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
     </row>
-    <row r="147" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4249,7 +4240,7 @@
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
     </row>
-    <row r="148" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4269,7 +4260,7 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
     </row>
-    <row r="149" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4289,7 +4280,7 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
     </row>
-    <row r="150" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4309,7 +4300,7 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
     </row>
-    <row r="151" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4329,7 +4320,7 @@
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
     </row>
-    <row r="152" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -4349,7 +4340,7 @@
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
     </row>
-    <row r="153" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -4369,7 +4360,7 @@
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
     </row>
-    <row r="154" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -4389,7 +4380,7 @@
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
     </row>
-    <row r="155" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4409,7 +4400,7 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
     </row>
-    <row r="156" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -4429,7 +4420,7 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
     </row>
-    <row r="157" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -4449,7 +4440,7 @@
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
     </row>
-    <row r="158" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -4469,7 +4460,7 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
     </row>
-    <row r="159" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4489,7 +4480,7 @@
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
     </row>
-    <row r="160" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -4509,7 +4500,7 @@
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
     </row>
-    <row r="161" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -4529,7 +4520,7 @@
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
     </row>
-    <row r="162" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -4549,7 +4540,7 @@
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
     </row>
-    <row r="163" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -4569,7 +4560,7 @@
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
     </row>
-    <row r="164" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4589,7 +4580,7 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
     </row>
-    <row r="165" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -4609,7 +4600,7 @@
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
     </row>
-    <row r="166" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4629,7 +4620,7 @@
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
     </row>
-    <row r="167" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -4649,7 +4640,7 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
     </row>
-    <row r="168" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4669,7 +4660,7 @@
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
     </row>
-    <row r="169" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4689,7 +4680,7 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
     </row>
-    <row r="170" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4709,7 +4700,7 @@
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
     </row>
-    <row r="171" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4729,7 +4720,7 @@
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
     </row>
-    <row r="172" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4749,7 +4740,7 @@
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
     </row>
-    <row r="173" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4769,7 +4760,7 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
     </row>
-    <row r="174" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4789,7 +4780,7 @@
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
     </row>
-    <row r="175" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4809,7 +4800,7 @@
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
     </row>
-    <row r="176" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4829,7 +4820,7 @@
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
     </row>
-    <row r="177" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4849,7 +4840,7 @@
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
     </row>
-    <row r="178" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4869,7 +4860,7 @@
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
     </row>
-    <row r="179" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -4889,7 +4880,7 @@
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
     </row>
-    <row r="180" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4909,7 +4900,7 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
     </row>
-    <row r="181" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -4929,7 +4920,7 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
     </row>
-    <row r="182" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -4949,7 +4940,7 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
     </row>
-    <row r="183" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -4969,7 +4960,7 @@
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
     </row>
-    <row r="184" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -4989,7 +4980,7 @@
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
     </row>
-    <row r="185" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -5009,7 +5000,7 @@
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
     </row>
-    <row r="186" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -5029,7 +5020,7 @@
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -5049,7 +5040,7 @@
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -5069,7 +5060,7 @@
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -5089,7 +5080,7 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -5109,7 +5100,7 @@
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -5129,7 +5120,7 @@
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -5149,7 +5140,7 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -5169,7 +5160,7 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -5189,7 +5180,7 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -5209,7 +5200,7 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -5229,7 +5220,7 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
     </row>
-    <row r="197" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -5249,7 +5240,7 @@
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
     </row>
-    <row r="198" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5269,7 +5260,7 @@
       <c r="Q198" s="4"/>
       <c r="R198" s="4"/>
     </row>
-    <row r="199" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -5289,7 +5280,7 @@
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
     </row>
-    <row r="200" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -5309,7 +5300,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
     </row>
-    <row r="201" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -5329,7 +5320,7 @@
       <c r="Q201" s="4"/>
       <c r="R201" s="4"/>
     </row>
-    <row r="202" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -5349,7 +5340,7 @@
       <c r="Q202" s="4"/>
       <c r="R202" s="4"/>
     </row>
-    <row r="203" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -5369,7 +5360,7 @@
       <c r="Q203" s="4"/>
       <c r="R203" s="4"/>
     </row>
-    <row r="204" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -5389,7 +5380,7 @@
       <c r="Q204" s="4"/>
       <c r="R204" s="4"/>
     </row>
-    <row r="205" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -5409,7 +5400,7 @@
       <c r="Q205" s="4"/>
       <c r="R205" s="4"/>
     </row>
-    <row r="206" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -5429,7 +5420,7 @@
       <c r="Q206" s="4"/>
       <c r="R206" s="4"/>
     </row>
-    <row r="207" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -5449,7 +5440,7 @@
       <c r="Q207" s="4"/>
       <c r="R207" s="4"/>
     </row>
-    <row r="208" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -5469,7 +5460,7 @@
       <c r="Q208" s="4"/>
       <c r="R208" s="4"/>
     </row>
-    <row r="209" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -5489,7 +5480,7 @@
       <c r="Q209" s="4"/>
       <c r="R209" s="4"/>
     </row>
-    <row r="210" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -5509,7 +5500,7 @@
       <c r="Q210" s="4"/>
       <c r="R210" s="4"/>
     </row>
-    <row r="211" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -5529,7 +5520,7 @@
       <c r="Q211" s="4"/>
       <c r="R211" s="4"/>
     </row>
-    <row r="212" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -5549,7 +5540,7 @@
       <c r="Q212" s="4"/>
       <c r="R212" s="4"/>
     </row>
-    <row r="213" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -5569,7 +5560,7 @@
       <c r="Q213" s="4"/>
       <c r="R213" s="4"/>
     </row>
-    <row r="214" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -5589,7 +5580,7 @@
       <c r="Q214" s="4"/>
       <c r="R214" s="4"/>
     </row>
-    <row r="215" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -5609,7 +5600,7 @@
       <c r="Q215" s="4"/>
       <c r="R215" s="4"/>
     </row>
-    <row r="216" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -5629,7 +5620,7 @@
       <c r="Q216" s="4"/>
       <c r="R216" s="4"/>
     </row>
-    <row r="217" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -5649,7 +5640,7 @@
       <c r="Q217" s="4"/>
       <c r="R217" s="4"/>
     </row>
-    <row r="218" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -5669,7 +5660,7 @@
       <c r="Q218" s="4"/>
       <c r="R218" s="4"/>
     </row>
-    <row r="219" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -5689,7 +5680,7 @@
       <c r="Q219" s="4"/>
       <c r="R219" s="4"/>
     </row>
-    <row r="220" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -5709,7 +5700,7 @@
       <c r="Q220" s="4"/>
       <c r="R220" s="4"/>
     </row>
-    <row r="221" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -5729,7 +5720,7 @@
       <c r="Q221" s="4"/>
       <c r="R221" s="4"/>
     </row>
-    <row r="222" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -5749,7 +5740,7 @@
       <c r="Q222" s="4"/>
       <c r="R222" s="4"/>
     </row>
-    <row r="223" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -5769,7 +5760,7 @@
       <c r="Q223" s="4"/>
       <c r="R223" s="4"/>
     </row>
-    <row r="224" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -5789,7 +5780,7 @@
       <c r="Q224" s="4"/>
       <c r="R224" s="4"/>
     </row>
-    <row r="225" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -5809,7 +5800,7 @@
       <c r="Q225" s="4"/>
       <c r="R225" s="4"/>
     </row>
-    <row r="226" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -5829,7 +5820,7 @@
       <c r="Q226" s="4"/>
       <c r="R226" s="4"/>
     </row>
-    <row r="227" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -5849,7 +5840,7 @@
       <c r="Q227" s="4"/>
       <c r="R227" s="4"/>
     </row>
-    <row r="228" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -5869,7 +5860,7 @@
       <c r="Q228" s="4"/>
       <c r="R228" s="4"/>
     </row>
-    <row r="229" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -5889,7 +5880,7 @@
       <c r="Q229" s="4"/>
       <c r="R229" s="4"/>
     </row>
-    <row r="230" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -5909,7 +5900,7 @@
       <c r="Q230" s="4"/>
       <c r="R230" s="4"/>
     </row>
-    <row r="231" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -5929,7 +5920,7 @@
       <c r="Q231" s="4"/>
       <c r="R231" s="4"/>
     </row>
-    <row r="232" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -5949,7 +5940,7 @@
       <c r="Q232" s="4"/>
       <c r="R232" s="4"/>
     </row>
-    <row r="233" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -5969,7 +5960,7 @@
       <c r="Q233" s="4"/>
       <c r="R233" s="4"/>
     </row>
-    <row r="234" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -5989,7 +5980,7 @@
       <c r="Q234" s="4"/>
       <c r="R234" s="4"/>
     </row>
-    <row r="235" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -6009,7 +6000,7 @@
       <c r="Q235" s="4"/>
       <c r="R235" s="4"/>
     </row>
-    <row r="236" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -6029,7 +6020,7 @@
       <c r="Q236" s="4"/>
       <c r="R236" s="4"/>
     </row>
-    <row r="237" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -6049,7 +6040,7 @@
       <c r="Q237" s="4"/>
       <c r="R237" s="4"/>
     </row>
-    <row r="238" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -6069,7 +6060,7 @@
       <c r="Q238" s="4"/>
       <c r="R238" s="4"/>
     </row>
-    <row r="239" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -6089,7 +6080,7 @@
       <c r="Q239" s="4"/>
       <c r="R239" s="4"/>
     </row>
-    <row r="240" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -6109,7 +6100,7 @@
       <c r="Q240" s="4"/>
       <c r="R240" s="4"/>
     </row>
-    <row r="241" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -6129,7 +6120,7 @@
       <c r="Q241" s="4"/>
       <c r="R241" s="4"/>
     </row>
-    <row r="242" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -6149,7 +6140,7 @@
       <c r="Q242" s="4"/>
       <c r="R242" s="4"/>
     </row>
-    <row r="243" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -6169,7 +6160,7 @@
       <c r="Q243" s="4"/>
       <c r="R243" s="4"/>
     </row>
-    <row r="244" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -6189,7 +6180,7 @@
       <c r="Q244" s="4"/>
       <c r="R244" s="4"/>
     </row>
-    <row r="245" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -6209,7 +6200,7 @@
       <c r="Q245" s="4"/>
       <c r="R245" s="4"/>
     </row>
-    <row r="246" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -6229,7 +6220,7 @@
       <c r="Q246" s="4"/>
       <c r="R246" s="4"/>
     </row>
-    <row r="247" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -6249,7 +6240,7 @@
       <c r="Q247" s="4"/>
       <c r="R247" s="4"/>
     </row>
-    <row r="248" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -6269,7 +6260,7 @@
       <c r="Q248" s="4"/>
       <c r="R248" s="4"/>
     </row>
-    <row r="249" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -6289,7 +6280,7 @@
       <c r="Q249" s="4"/>
       <c r="R249" s="4"/>
     </row>
-    <row r="250" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -6309,7 +6300,7 @@
       <c r="Q250" s="4"/>
       <c r="R250" s="4"/>
     </row>
-    <row r="251" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -6329,7 +6320,7 @@
       <c r="Q251" s="4"/>
       <c r="R251" s="4"/>
     </row>
-    <row r="252" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -6349,7 +6340,7 @@
       <c r="Q252" s="4"/>
       <c r="R252" s="4"/>
     </row>
-    <row r="253" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -6369,7 +6360,7 @@
       <c r="Q253" s="4"/>
       <c r="R253" s="4"/>
     </row>
-    <row r="254" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -6389,7 +6380,7 @@
       <c r="Q254" s="4"/>
       <c r="R254" s="4"/>
     </row>
-    <row r="255" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -6409,7 +6400,7 @@
       <c r="Q255" s="4"/>
       <c r="R255" s="4"/>
     </row>
-    <row r="256" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -6429,7 +6420,7 @@
       <c r="Q256" s="4"/>
       <c r="R256" s="4"/>
     </row>
-    <row r="257" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -6449,7 +6440,7 @@
       <c r="Q257" s="4"/>
       <c r="R257" s="4"/>
     </row>
-    <row r="258" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -6469,7 +6460,7 @@
       <c r="Q258" s="4"/>
       <c r="R258" s="4"/>
     </row>
-    <row r="259" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -6489,7 +6480,7 @@
       <c r="Q259" s="4"/>
       <c r="R259" s="4"/>
     </row>
-    <row r="260" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -6509,7 +6500,7 @@
       <c r="Q260" s="4"/>
       <c r="R260" s="4"/>
     </row>
-    <row r="261" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -6529,7 +6520,7 @@
       <c r="Q261" s="4"/>
       <c r="R261" s="4"/>
     </row>
-    <row r="262" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -6549,7 +6540,7 @@
       <c r="Q262" s="4"/>
       <c r="R262" s="4"/>
     </row>
-    <row r="263" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -6569,7 +6560,7 @@
       <c r="Q263" s="4"/>
       <c r="R263" s="4"/>
     </row>
-    <row r="264" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -6589,7 +6580,7 @@
       <c r="Q264" s="4"/>
       <c r="R264" s="4"/>
     </row>
-    <row r="265" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -6609,7 +6600,7 @@
       <c r="Q265" s="4"/>
       <c r="R265" s="4"/>
     </row>
-    <row r="266" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -6629,7 +6620,7 @@
       <c r="Q266" s="4"/>
       <c r="R266" s="4"/>
     </row>
-    <row r="267" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -6649,7 +6640,7 @@
       <c r="Q267" s="4"/>
       <c r="R267" s="4"/>
     </row>
-    <row r="268" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -6669,7 +6660,7 @@
       <c r="Q268" s="4"/>
       <c r="R268" s="4"/>
     </row>
-    <row r="269" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -6689,7 +6680,7 @@
       <c r="Q269" s="4"/>
       <c r="R269" s="4"/>
     </row>
-    <row r="270" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -6709,7 +6700,7 @@
       <c r="Q270" s="4"/>
       <c r="R270" s="4"/>
     </row>
-    <row r="271" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -6729,7 +6720,7 @@
       <c r="Q271" s="4"/>
       <c r="R271" s="4"/>
     </row>
-    <row r="272" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -6749,7 +6740,7 @@
       <c r="Q272" s="4"/>
       <c r="R272" s="4"/>
     </row>
-    <row r="273" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -6769,7 +6760,7 @@
       <c r="Q273" s="4"/>
       <c r="R273" s="4"/>
     </row>
-    <row r="274" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -6789,7 +6780,7 @@
       <c r="Q274" s="4"/>
       <c r="R274" s="4"/>
     </row>
-    <row r="275" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -6809,7 +6800,7 @@
       <c r="Q275" s="4"/>
       <c r="R275" s="4"/>
     </row>
-    <row r="276" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -6829,7 +6820,7 @@
       <c r="Q276" s="4"/>
       <c r="R276" s="4"/>
     </row>
-    <row r="277" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -6849,7 +6840,7 @@
       <c r="Q277" s="4"/>
       <c r="R277" s="4"/>
     </row>
-    <row r="278" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -6869,7 +6860,7 @@
       <c r="Q278" s="4"/>
       <c r="R278" s="4"/>
     </row>
-    <row r="279" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -6889,7 +6880,7 @@
       <c r="Q279" s="4"/>
       <c r="R279" s="4"/>
     </row>
-    <row r="280" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -6909,7 +6900,7 @@
       <c r="Q280" s="4"/>
       <c r="R280" s="4"/>
     </row>
-    <row r="281" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -6929,7 +6920,7 @@
       <c r="Q281" s="4"/>
       <c r="R281" s="4"/>
     </row>
-    <row r="282" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -6949,7 +6940,7 @@
       <c r="Q282" s="4"/>
       <c r="R282" s="4"/>
     </row>
-    <row r="283" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -6969,7 +6960,7 @@
       <c r="Q283" s="4"/>
       <c r="R283" s="4"/>
     </row>
-    <row r="284" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -6989,7 +6980,7 @@
       <c r="Q284" s="4"/>
       <c r="R284" s="4"/>
     </row>
-    <row r="285" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -7009,7 +7000,7 @@
       <c r="Q285" s="4"/>
       <c r="R285" s="4"/>
     </row>
-    <row r="286" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -7029,7 +7020,7 @@
       <c r="Q286" s="4"/>
       <c r="R286" s="4"/>
     </row>
-    <row r="287" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -7049,7 +7040,7 @@
       <c r="Q287" s="4"/>
       <c r="R287" s="4"/>
     </row>
-    <row r="288" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -7069,7 +7060,7 @@
       <c r="Q288" s="4"/>
       <c r="R288" s="4"/>
     </row>
-    <row r="289" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -7089,7 +7080,7 @@
       <c r="Q289" s="4"/>
       <c r="R289" s="4"/>
     </row>
-    <row r="290" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -7109,7 +7100,7 @@
       <c r="Q290" s="4"/>
       <c r="R290" s="4"/>
     </row>
-    <row r="291" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -7129,7 +7120,7 @@
       <c r="Q291" s="4"/>
       <c r="R291" s="4"/>
     </row>
-    <row r="292" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -7149,7 +7140,7 @@
       <c r="Q292" s="4"/>
       <c r="R292" s="4"/>
     </row>
-    <row r="293" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -7169,7 +7160,7 @@
       <c r="Q293" s="4"/>
       <c r="R293" s="4"/>
     </row>
-    <row r="294" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -7189,7 +7180,7 @@
       <c r="Q294" s="4"/>
       <c r="R294" s="4"/>
     </row>
-    <row r="295" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -7209,7 +7200,7 @@
       <c r="Q295" s="4"/>
       <c r="R295" s="4"/>
     </row>
-    <row r="296" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -7229,7 +7220,7 @@
       <c r="Q296" s="4"/>
       <c r="R296" s="4"/>
     </row>
-    <row r="297" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -7249,7 +7240,7 @@
       <c r="Q297" s="4"/>
       <c r="R297" s="4"/>
     </row>
-    <row r="298" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -7269,7 +7260,7 @@
       <c r="Q298" s="4"/>
       <c r="R298" s="4"/>
     </row>
-    <row r="299" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -7289,7 +7280,7 @@
       <c r="Q299" s="4"/>
       <c r="R299" s="4"/>
     </row>
-    <row r="300" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -7309,7 +7300,7 @@
       <c r="Q300" s="4"/>
       <c r="R300" s="4"/>
     </row>
-    <row r="301" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -7329,7 +7320,7 @@
       <c r="Q301" s="4"/>
       <c r="R301" s="4"/>
     </row>
-    <row r="302" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -7349,7 +7340,7 @@
       <c r="Q302" s="4"/>
       <c r="R302" s="4"/>
     </row>
-    <row r="303" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -7369,7 +7360,7 @@
       <c r="Q303" s="4"/>
       <c r="R303" s="4"/>
     </row>
-    <row r="304" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -7389,7 +7380,7 @@
       <c r="Q304" s="4"/>
       <c r="R304" s="4"/>
     </row>
-    <row r="305" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -7409,7 +7400,7 @@
       <c r="Q305" s="4"/>
       <c r="R305" s="4"/>
     </row>
-    <row r="306" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -7429,7 +7420,7 @@
       <c r="Q306" s="4"/>
       <c r="R306" s="4"/>
     </row>
-    <row r="307" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -7449,7 +7440,7 @@
       <c r="Q307" s="4"/>
       <c r="R307" s="4"/>
     </row>
-    <row r="308" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -7469,7 +7460,7 @@
       <c r="Q308" s="4"/>
       <c r="R308" s="4"/>
     </row>
-    <row r="309" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -7489,7 +7480,7 @@
       <c r="Q309" s="4"/>
       <c r="R309" s="4"/>
     </row>
-    <row r="310" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -7509,7 +7500,7 @@
       <c r="Q310" s="4"/>
       <c r="R310" s="4"/>
     </row>
-    <row r="311" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -7529,7 +7520,7 @@
       <c r="Q311" s="4"/>
       <c r="R311" s="4"/>
     </row>
-    <row r="312" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -7549,7 +7540,7 @@
       <c r="Q312" s="4"/>
       <c r="R312" s="4"/>
     </row>
-    <row r="313" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -7569,7 +7560,7 @@
       <c r="Q313" s="4"/>
       <c r="R313" s="4"/>
     </row>
-    <row r="314" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -7589,7 +7580,7 @@
       <c r="Q314" s="4"/>
       <c r="R314" s="4"/>
     </row>
-    <row r="315" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -7609,7 +7600,7 @@
       <c r="Q315" s="4"/>
       <c r="R315" s="4"/>
     </row>
-    <row r="316" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -7629,7 +7620,7 @@
       <c r="Q316" s="4"/>
       <c r="R316" s="4"/>
     </row>
-    <row r="317" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -7649,7 +7640,7 @@
       <c r="Q317" s="4"/>
       <c r="R317" s="4"/>
     </row>
-    <row r="318" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -7669,7 +7660,7 @@
       <c r="Q318" s="4"/>
       <c r="R318" s="4"/>
     </row>
-    <row r="319" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -7689,7 +7680,7 @@
       <c r="Q319" s="4"/>
       <c r="R319" s="4"/>
     </row>
-    <row r="320" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -7709,7 +7700,7 @@
       <c r="Q320" s="4"/>
       <c r="R320" s="4"/>
     </row>
-    <row r="321" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -7729,7 +7720,7 @@
       <c r="Q321" s="4"/>
       <c r="R321" s="4"/>
     </row>
-    <row r="322" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -7749,7 +7740,7 @@
       <c r="Q322" s="4"/>
       <c r="R322" s="4"/>
     </row>
-    <row r="323" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -7769,7 +7760,7 @@
       <c r="Q323" s="4"/>
       <c r="R323" s="4"/>
     </row>
-    <row r="324" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -7789,7 +7780,7 @@
       <c r="Q324" s="4"/>
       <c r="R324" s="4"/>
     </row>
-    <row r="325" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -7809,7 +7800,7 @@
       <c r="Q325" s="4"/>
       <c r="R325" s="4"/>
     </row>
-    <row r="326" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -7829,7 +7820,7 @@
       <c r="Q326" s="4"/>
       <c r="R326" s="4"/>
     </row>
-    <row r="327" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -7849,7 +7840,7 @@
       <c r="Q327" s="4"/>
       <c r="R327" s="4"/>
     </row>
-    <row r="328" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -7869,7 +7860,7 @@
       <c r="Q328" s="4"/>
       <c r="R328" s="4"/>
     </row>
-    <row r="329" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -7889,7 +7880,7 @@
       <c r="Q329" s="4"/>
       <c r="R329" s="4"/>
     </row>
-    <row r="330" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -7909,7 +7900,7 @@
       <c r="Q330" s="4"/>
       <c r="R330" s="4"/>
     </row>
-    <row r="331" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -7929,7 +7920,7 @@
       <c r="Q331" s="4"/>
       <c r="R331" s="4"/>
     </row>
-    <row r="332" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -7949,7 +7940,7 @@
       <c r="Q332" s="4"/>
       <c r="R332" s="4"/>
     </row>
-    <row r="333" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -7969,7 +7960,7 @@
       <c r="Q333" s="4"/>
       <c r="R333" s="4"/>
     </row>
-    <row r="334" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -7989,7 +7980,7 @@
       <c r="Q334" s="4"/>
       <c r="R334" s="4"/>
     </row>
-    <row r="335" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -8009,7 +8000,7 @@
       <c r="Q335" s="4"/>
       <c r="R335" s="4"/>
     </row>
-    <row r="336" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -8029,7 +8020,7 @@
       <c r="Q336" s="4"/>
       <c r="R336" s="4"/>
     </row>
-    <row r="337" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -8049,7 +8040,7 @@
       <c r="Q337" s="4"/>
       <c r="R337" s="4"/>
     </row>
-    <row r="338" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -8069,7 +8060,7 @@
       <c r="Q338" s="4"/>
       <c r="R338" s="4"/>
     </row>
-    <row r="339" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -8089,7 +8080,7 @@
       <c r="Q339" s="4"/>
       <c r="R339" s="4"/>
     </row>
-    <row r="340" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -8109,7 +8100,7 @@
       <c r="Q340" s="4"/>
       <c r="R340" s="4"/>
     </row>
-    <row r="341" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -8129,7 +8120,7 @@
       <c r="Q341" s="4"/>
       <c r="R341" s="4"/>
     </row>
-    <row r="342" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -8149,7 +8140,7 @@
       <c r="Q342" s="4"/>
       <c r="R342" s="4"/>
     </row>
-    <row r="343" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -8169,7 +8160,7 @@
       <c r="Q343" s="4"/>
       <c r="R343" s="4"/>
     </row>
-    <row r="344" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -8189,7 +8180,7 @@
       <c r="Q344" s="4"/>
       <c r="R344" s="4"/>
     </row>
-    <row r="345" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -8209,7 +8200,7 @@
       <c r="Q345" s="4"/>
       <c r="R345" s="4"/>
     </row>
-    <row r="346" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -8229,7 +8220,7 @@
       <c r="Q346" s="4"/>
       <c r="R346" s="4"/>
     </row>
-    <row r="347" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -8249,7 +8240,7 @@
       <c r="Q347" s="4"/>
       <c r="R347" s="4"/>
     </row>
-    <row r="348" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -8269,7 +8260,7 @@
       <c r="Q348" s="4"/>
       <c r="R348" s="4"/>
     </row>
-    <row r="349" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -8289,7 +8280,7 @@
       <c r="Q349" s="4"/>
       <c r="R349" s="4"/>
     </row>
-    <row r="350" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -8309,7 +8300,7 @@
       <c r="Q350" s="4"/>
       <c r="R350" s="4"/>
     </row>
-    <row r="351" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -8329,7 +8320,7 @@
       <c r="Q351" s="4"/>
       <c r="R351" s="4"/>
     </row>
-    <row r="352" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -8349,7 +8340,7 @@
       <c r="Q352" s="4"/>
       <c r="R352" s="4"/>
     </row>
-    <row r="353" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -8369,7 +8360,7 @@
       <c r="Q353" s="4"/>
       <c r="R353" s="4"/>
     </row>
-    <row r="354" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -8389,7 +8380,7 @@
       <c r="Q354" s="4"/>
       <c r="R354" s="4"/>
     </row>
-    <row r="355" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -8409,7 +8400,7 @@
       <c r="Q355" s="4"/>
       <c r="R355" s="4"/>
     </row>
-    <row r="356" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -8429,7 +8420,7 @@
       <c r="Q356" s="4"/>
       <c r="R356" s="4"/>
     </row>
-    <row r="357" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -8449,7 +8440,7 @@
       <c r="Q357" s="4"/>
       <c r="R357" s="4"/>
     </row>
-    <row r="358" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -8469,7 +8460,7 @@
       <c r="Q358" s="4"/>
       <c r="R358" s="4"/>
     </row>
-    <row r="359" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -8489,7 +8480,7 @@
       <c r="Q359" s="4"/>
       <c r="R359" s="4"/>
     </row>
-    <row r="360" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -8509,7 +8500,7 @@
       <c r="Q360" s="4"/>
       <c r="R360" s="4"/>
     </row>
-    <row r="361" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -8529,7 +8520,7 @@
       <c r="Q361" s="4"/>
       <c r="R361" s="4"/>
     </row>
-    <row r="362" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -8549,7 +8540,7 @@
       <c r="Q362" s="4"/>
       <c r="R362" s="4"/>
     </row>
-    <row r="363" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -8569,7 +8560,7 @@
       <c r="Q363" s="4"/>
       <c r="R363" s="4"/>
     </row>
-    <row r="364" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -8589,7 +8580,7 @@
       <c r="Q364" s="4"/>
       <c r="R364" s="4"/>
     </row>
-    <row r="365" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -8609,7 +8600,7 @@
       <c r="Q365" s="4"/>
       <c r="R365" s="4"/>
     </row>
-    <row r="366" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -8629,7 +8620,7 @@
       <c r="Q366" s="4"/>
       <c r="R366" s="4"/>
     </row>
-    <row r="367" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -8649,7 +8640,7 @@
       <c r="Q367" s="4"/>
       <c r="R367" s="4"/>
     </row>
-    <row r="368" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -8669,7 +8660,7 @@
       <c r="Q368" s="4"/>
       <c r="R368" s="4"/>
     </row>
-    <row r="369" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -8689,7 +8680,7 @@
       <c r="Q369" s="4"/>
       <c r="R369" s="4"/>
     </row>
-    <row r="370" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -8709,7 +8700,7 @@
       <c r="Q370" s="4"/>
       <c r="R370" s="4"/>
     </row>
-    <row r="371" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -8729,7 +8720,7 @@
       <c r="Q371" s="4"/>
       <c r="R371" s="4"/>
     </row>
-    <row r="372" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -8749,7 +8740,7 @@
       <c r="Q372" s="4"/>
       <c r="R372" s="4"/>
     </row>
-    <row r="373" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -8769,7 +8760,7 @@
       <c r="Q373" s="4"/>
       <c r="R373" s="4"/>
     </row>
-    <row r="374" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -8789,7 +8780,7 @@
       <c r="Q374" s="4"/>
       <c r="R374" s="4"/>
     </row>
-    <row r="375" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -8809,7 +8800,7 @@
       <c r="Q375" s="4"/>
       <c r="R375" s="4"/>
     </row>
-    <row r="376" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -8829,7 +8820,7 @@
       <c r="Q376" s="4"/>
       <c r="R376" s="4"/>
     </row>
-    <row r="377" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -8849,7 +8840,7 @@
       <c r="Q377" s="4"/>
       <c r="R377" s="4"/>
     </row>
-    <row r="378" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -8869,7 +8860,7 @@
       <c r="Q378" s="4"/>
       <c r="R378" s="4"/>
     </row>
-    <row r="379" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -8889,7 +8880,7 @@
       <c r="Q379" s="4"/>
       <c r="R379" s="4"/>
     </row>
-    <row r="380" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -8909,7 +8900,7 @@
       <c r="Q380" s="4"/>
       <c r="R380" s="4"/>
     </row>
-    <row r="381" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -8929,7 +8920,7 @@
       <c r="Q381" s="4"/>
       <c r="R381" s="4"/>
     </row>
-    <row r="382" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -8949,7 +8940,7 @@
       <c r="Q382" s="4"/>
       <c r="R382" s="4"/>
     </row>
-    <row r="383" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -8969,7 +8960,7 @@
       <c r="Q383" s="4"/>
       <c r="R383" s="4"/>
     </row>
-    <row r="384" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -8989,7 +8980,7 @@
       <c r="Q384" s="4"/>
       <c r="R384" s="4"/>
     </row>
-    <row r="385" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -9009,7 +9000,7 @@
       <c r="Q385" s="4"/>
       <c r="R385" s="4"/>
     </row>
-    <row r="386" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -9029,7 +9020,7 @@
       <c r="Q386" s="4"/>
       <c r="R386" s="4"/>
     </row>
-    <row r="387" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -9049,7 +9040,7 @@
       <c r="Q387" s="4"/>
       <c r="R387" s="4"/>
     </row>
-    <row r="388" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -9069,7 +9060,7 @@
       <c r="Q388" s="4"/>
       <c r="R388" s="4"/>
     </row>
-    <row r="389" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -9089,7 +9080,7 @@
       <c r="Q389" s="4"/>
       <c r="R389" s="4"/>
     </row>
-    <row r="390" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -9109,7 +9100,7 @@
       <c r="Q390" s="4"/>
       <c r="R390" s="4"/>
     </row>
-    <row r="391" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -9129,7 +9120,7 @@
       <c r="Q391" s="4"/>
       <c r="R391" s="4"/>
     </row>
-    <row r="392" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -9149,7 +9140,7 @@
       <c r="Q392" s="4"/>
       <c r="R392" s="4"/>
     </row>
-    <row r="393" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -9169,7 +9160,7 @@
       <c r="Q393" s="4"/>
       <c r="R393" s="4"/>
     </row>
-    <row r="394" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -9189,7 +9180,7 @@
       <c r="Q394" s="4"/>
       <c r="R394" s="4"/>
     </row>
-    <row r="395" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -9209,7 +9200,7 @@
       <c r="Q395" s="4"/>
       <c r="R395" s="4"/>
     </row>
-    <row r="396" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -9229,7 +9220,7 @@
       <c r="Q396" s="4"/>
       <c r="R396" s="4"/>
     </row>
-    <row r="397" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -9249,7 +9240,7 @@
       <c r="Q397" s="4"/>
       <c r="R397" s="4"/>
     </row>
-    <row r="398" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -9269,7 +9260,7 @@
       <c r="Q398" s="4"/>
       <c r="R398" s="4"/>
     </row>
-    <row r="399" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -9289,7 +9280,7 @@
       <c r="Q399" s="4"/>
       <c r="R399" s="4"/>
     </row>
-    <row r="400" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -9309,7 +9300,7 @@
       <c r="Q400" s="4"/>
       <c r="R400" s="4"/>
     </row>
-    <row r="401" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -9329,7 +9320,7 @@
       <c r="Q401" s="4"/>
       <c r="R401" s="4"/>
     </row>
-    <row r="402" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -9349,7 +9340,7 @@
       <c r="Q402" s="4"/>
       <c r="R402" s="4"/>
     </row>
-    <row r="403" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -9369,7 +9360,7 @@
       <c r="Q403" s="4"/>
       <c r="R403" s="4"/>
     </row>
-    <row r="404" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -9389,7 +9380,7 @@
       <c r="Q404" s="4"/>
       <c r="R404" s="4"/>
     </row>
-    <row r="405" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -9409,7 +9400,7 @@
       <c r="Q405" s="4"/>
       <c r="R405" s="4"/>
     </row>
-    <row r="406" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -9429,7 +9420,7 @@
       <c r="Q406" s="4"/>
       <c r="R406" s="4"/>
     </row>
-    <row r="407" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -9449,7 +9440,7 @@
       <c r="Q407" s="4"/>
       <c r="R407" s="4"/>
     </row>
-    <row r="408" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -9469,7 +9460,7 @@
       <c r="Q408" s="4"/>
       <c r="R408" s="4"/>
     </row>
-    <row r="409" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -9489,7 +9480,7 @@
       <c r="Q409" s="4"/>
       <c r="R409" s="4"/>
     </row>
-    <row r="410" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -9509,7 +9500,7 @@
       <c r="Q410" s="4"/>
       <c r="R410" s="4"/>
     </row>
-    <row r="411" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -9529,7 +9520,7 @@
       <c r="Q411" s="4"/>
       <c r="R411" s="4"/>
     </row>
-    <row r="412" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -9549,7 +9540,7 @@
       <c r="Q412" s="4"/>
       <c r="R412" s="4"/>
     </row>
-    <row r="413" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -9569,7 +9560,7 @@
       <c r="Q413" s="4"/>
       <c r="R413" s="4"/>
     </row>
-    <row r="414" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -9589,7 +9580,7 @@
       <c r="Q414" s="4"/>
       <c r="R414" s="4"/>
     </row>
-    <row r="415" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -9609,7 +9600,7 @@
       <c r="Q415" s="4"/>
       <c r="R415" s="4"/>
     </row>
-    <row r="416" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -9629,7 +9620,7 @@
       <c r="Q416" s="4"/>
       <c r="R416" s="4"/>
     </row>
-    <row r="417" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -9649,7 +9640,7 @@
       <c r="Q417" s="4"/>
       <c r="R417" s="4"/>
     </row>
-    <row r="418" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -9669,7 +9660,7 @@
       <c r="Q418" s="4"/>
       <c r="R418" s="4"/>
     </row>
-    <row r="419" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -9689,7 +9680,7 @@
       <c r="Q419" s="4"/>
       <c r="R419" s="4"/>
     </row>
-    <row r="420" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -9709,7 +9700,7 @@
       <c r="Q420" s="4"/>
       <c r="R420" s="4"/>
     </row>
-    <row r="421" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -9729,7 +9720,7 @@
       <c r="Q421" s="4"/>
       <c r="R421" s="4"/>
     </row>
-    <row r="422" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -9749,7 +9740,7 @@
       <c r="Q422" s="4"/>
       <c r="R422" s="4"/>
     </row>
-    <row r="423" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -9769,7 +9760,7 @@
       <c r="Q423" s="4"/>
       <c r="R423" s="4"/>
     </row>
-    <row r="424" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -9789,7 +9780,7 @@
       <c r="Q424" s="4"/>
       <c r="R424" s="4"/>
     </row>
-    <row r="425" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -9809,7 +9800,7 @@
       <c r="Q425" s="4"/>
       <c r="R425" s="4"/>
     </row>
-    <row r="426" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -9829,7 +9820,7 @@
       <c r="Q426" s="4"/>
       <c r="R426" s="4"/>
     </row>
-    <row r="427" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -9849,7 +9840,7 @@
       <c r="Q427" s="4"/>
       <c r="R427" s="4"/>
     </row>
-    <row r="428" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -9869,7 +9860,7 @@
       <c r="Q428" s="4"/>
       <c r="R428" s="4"/>
     </row>
-    <row r="429" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -9889,7 +9880,7 @@
       <c r="Q429" s="4"/>
       <c r="R429" s="4"/>
     </row>
-    <row r="430" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -9909,7 +9900,7 @@
       <c r="Q430" s="4"/>
       <c r="R430" s="4"/>
     </row>
-    <row r="431" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -9929,7 +9920,7 @@
       <c r="Q431" s="4"/>
       <c r="R431" s="4"/>
     </row>
-    <row r="432" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -9949,7 +9940,7 @@
       <c r="Q432" s="4"/>
       <c r="R432" s="4"/>
     </row>
-    <row r="433" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -9969,7 +9960,7 @@
       <c r="Q433" s="4"/>
       <c r="R433" s="4"/>
     </row>
-    <row r="434" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -9989,7 +9980,7 @@
       <c r="Q434" s="4"/>
       <c r="R434" s="4"/>
     </row>
-    <row r="435" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -10009,7 +10000,7 @@
       <c r="Q435" s="4"/>
       <c r="R435" s="4"/>
     </row>
-    <row r="436" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -10029,7 +10020,7 @@
       <c r="Q436" s="4"/>
       <c r="R436" s="4"/>
     </row>
-    <row r="437" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -10049,7 +10040,7 @@
       <c r="Q437" s="4"/>
       <c r="R437" s="4"/>
     </row>
-    <row r="438" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -10069,7 +10060,7 @@
       <c r="Q438" s="4"/>
       <c r="R438" s="4"/>
     </row>
-    <row r="439" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -10089,7 +10080,7 @@
       <c r="Q439" s="4"/>
       <c r="R439" s="4"/>
     </row>
-    <row r="440" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -10109,7 +10100,7 @@
       <c r="Q440" s="4"/>
       <c r="R440" s="4"/>
     </row>
-    <row r="441" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -10129,7 +10120,7 @@
       <c r="Q441" s="4"/>
       <c r="R441" s="4"/>
     </row>
-    <row r="442" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -10149,7 +10140,7 @@
       <c r="Q442" s="4"/>
       <c r="R442" s="4"/>
     </row>
-    <row r="443" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -10169,7 +10160,7 @@
       <c r="Q443" s="4"/>
       <c r="R443" s="4"/>
     </row>
-    <row r="444" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -10189,7 +10180,7 @@
       <c r="Q444" s="4"/>
       <c r="R444" s="4"/>
     </row>
-    <row r="445" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -10209,7 +10200,7 @@
       <c r="Q445" s="4"/>
       <c r="R445" s="4"/>
     </row>
-    <row r="446" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -10229,7 +10220,7 @@
       <c r="Q446" s="4"/>
       <c r="R446" s="4"/>
     </row>
-    <row r="447" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -10249,7 +10240,7 @@
       <c r="Q447" s="4"/>
       <c r="R447" s="4"/>
     </row>
-    <row r="448" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -10269,7 +10260,7 @@
       <c r="Q448" s="4"/>
       <c r="R448" s="4"/>
     </row>
-    <row r="449" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -10289,7 +10280,7 @@
       <c r="Q449" s="4"/>
       <c r="R449" s="4"/>
     </row>
-    <row r="450" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -10309,7 +10300,7 @@
       <c r="Q450" s="4"/>
       <c r="R450" s="4"/>
     </row>
-    <row r="451" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -10329,7 +10320,7 @@
       <c r="Q451" s="4"/>
       <c r="R451" s="4"/>
     </row>
-    <row r="452" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -10349,7 +10340,7 @@
       <c r="Q452" s="4"/>
       <c r="R452" s="4"/>
     </row>
-    <row r="453" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -10369,7 +10360,7 @@
       <c r="Q453" s="4"/>
       <c r="R453" s="4"/>
     </row>
-    <row r="454" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -10389,7 +10380,7 @@
       <c r="Q454" s="4"/>
       <c r="R454" s="4"/>
     </row>
-    <row r="455" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -10409,7 +10400,7 @@
       <c r="Q455" s="4"/>
       <c r="R455" s="4"/>
     </row>
-    <row r="456" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -10429,7 +10420,7 @@
       <c r="Q456" s="4"/>
       <c r="R456" s="4"/>
     </row>
-    <row r="457" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -10449,7 +10440,7 @@
       <c r="Q457" s="4"/>
       <c r="R457" s="4"/>
     </row>
-    <row r="458" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -10469,7 +10460,7 @@
       <c r="Q458" s="4"/>
       <c r="R458" s="4"/>
     </row>
-    <row r="459" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -10489,7 +10480,7 @@
       <c r="Q459" s="4"/>
       <c r="R459" s="4"/>
     </row>
-    <row r="460" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -10509,7 +10500,7 @@
       <c r="Q460" s="4"/>
       <c r="R460" s="4"/>
     </row>
-    <row r="461" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -10529,7 +10520,7 @@
       <c r="Q461" s="4"/>
       <c r="R461" s="4"/>
     </row>
-    <row r="462" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -10549,7 +10540,7 @@
       <c r="Q462" s="4"/>
       <c r="R462" s="4"/>
     </row>
-    <row r="463" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -10569,7 +10560,7 @@
       <c r="Q463" s="4"/>
       <c r="R463" s="4"/>
     </row>
-    <row r="464" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -10589,7 +10580,7 @@
       <c r="Q464" s="4"/>
       <c r="R464" s="4"/>
     </row>
-    <row r="465" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -10609,7 +10600,7 @@
       <c r="Q465" s="4"/>
       <c r="R465" s="4"/>
     </row>
-    <row r="466" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -10629,7 +10620,7 @@
       <c r="Q466" s="4"/>
       <c r="R466" s="4"/>
     </row>
-    <row r="467" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -10649,7 +10640,7 @@
       <c r="Q467" s="4"/>
       <c r="R467" s="4"/>
     </row>
-    <row r="468" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -10669,7 +10660,7 @@
       <c r="Q468" s="4"/>
       <c r="R468" s="4"/>
     </row>
-    <row r="469" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -10689,7 +10680,7 @@
       <c r="Q469" s="4"/>
       <c r="R469" s="4"/>
     </row>
-    <row r="470" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -10709,7 +10700,7 @@
       <c r="Q470" s="4"/>
       <c r="R470" s="4"/>
     </row>
-    <row r="471" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -10729,7 +10720,7 @@
       <c r="Q471" s="4"/>
       <c r="R471" s="4"/>
     </row>
-    <row r="472" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -10749,7 +10740,7 @@
       <c r="Q472" s="4"/>
       <c r="R472" s="4"/>
     </row>
-    <row r="473" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -10769,7 +10760,7 @@
       <c r="Q473" s="4"/>
       <c r="R473" s="4"/>
     </row>
-    <row r="474" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -10789,7 +10780,7 @@
       <c r="Q474" s="4"/>
       <c r="R474" s="4"/>
     </row>
-    <row r="475" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -10809,7 +10800,7 @@
       <c r="Q475" s="4"/>
       <c r="R475" s="4"/>
     </row>
-    <row r="476" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -10829,7 +10820,7 @@
       <c r="Q476" s="4"/>
       <c r="R476" s="4"/>
     </row>
-    <row r="477" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -10849,7 +10840,7 @@
       <c r="Q477" s="4"/>
       <c r="R477" s="4"/>
     </row>
-    <row r="478" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -10869,7 +10860,7 @@
       <c r="Q478" s="4"/>
       <c r="R478" s="4"/>
     </row>
-    <row r="479" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -10889,7 +10880,7 @@
       <c r="Q479" s="4"/>
       <c r="R479" s="4"/>
     </row>
-    <row r="480" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -10909,7 +10900,7 @@
       <c r="Q480" s="4"/>
       <c r="R480" s="4"/>
     </row>
-    <row r="481" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -10929,7 +10920,7 @@
       <c r="Q481" s="4"/>
       <c r="R481" s="4"/>
     </row>
-    <row r="482" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -10949,7 +10940,7 @@
       <c r="Q482" s="4"/>
       <c r="R482" s="4"/>
     </row>
-    <row r="483" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -10969,7 +10960,7 @@
       <c r="Q483" s="4"/>
       <c r="R483" s="4"/>
     </row>
-    <row r="484" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -10989,7 +10980,7 @@
       <c r="Q484" s="4"/>
       <c r="R484" s="4"/>
     </row>
-    <row r="485" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -11009,7 +11000,7 @@
       <c r="Q485" s="4"/>
       <c r="R485" s="4"/>
     </row>
-    <row r="486" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -11029,7 +11020,7 @@
       <c r="Q486" s="4"/>
       <c r="R486" s="4"/>
     </row>
-    <row r="487" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -11049,7 +11040,7 @@
       <c r="Q487" s="4"/>
       <c r="R487" s="4"/>
     </row>
-    <row r="488" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -11069,7 +11060,7 @@
       <c r="Q488" s="4"/>
       <c r="R488" s="4"/>
     </row>
-    <row r="489" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -11089,7 +11080,7 @@
       <c r="Q489" s="4"/>
       <c r="R489" s="4"/>
     </row>
-    <row r="490" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -11109,7 +11100,7 @@
       <c r="Q490" s="4"/>
       <c r="R490" s="4"/>
     </row>
-    <row r="491" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -11129,7 +11120,7 @@
       <c r="Q491" s="4"/>
       <c r="R491" s="4"/>
     </row>
-    <row r="492" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -11149,7 +11140,7 @@
       <c r="Q492" s="4"/>
       <c r="R492" s="4"/>
     </row>
-    <row r="493" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -11169,7 +11160,7 @@
       <c r="Q493" s="4"/>
       <c r="R493" s="4"/>
     </row>
-    <row r="494" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -11189,7 +11180,7 @@
       <c r="Q494" s="4"/>
       <c r="R494" s="4"/>
     </row>
-    <row r="495" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -11209,7 +11200,7 @@
       <c r="Q495" s="4"/>
       <c r="R495" s="4"/>
     </row>
-    <row r="496" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -11229,7 +11220,7 @@
       <c r="Q496" s="4"/>
       <c r="R496" s="4"/>
     </row>
-    <row r="497" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -11249,7 +11240,7 @@
       <c r="Q497" s="4"/>
       <c r="R497" s="4"/>
     </row>
-    <row r="498" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -11269,7 +11260,7 @@
       <c r="Q498" s="4"/>
       <c r="R498" s="4"/>
     </row>
-    <row r="499" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -11289,7 +11280,7 @@
       <c r="Q499" s="4"/>
       <c r="R499" s="4"/>
     </row>
-    <row r="500" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -11309,7 +11300,7 @@
       <c r="Q500" s="4"/>
       <c r="R500" s="4"/>
     </row>
-    <row r="501" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -11329,7 +11320,7 @@
       <c r="Q501" s="4"/>
       <c r="R501" s="4"/>
     </row>
-    <row r="502" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -11349,7 +11340,7 @@
       <c r="Q502" s="4"/>
       <c r="R502" s="4"/>
     </row>
-    <row r="503" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -11369,7 +11360,7 @@
       <c r="Q503" s="4"/>
       <c r="R503" s="4"/>
     </row>
-    <row r="504" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -11389,7 +11380,7 @@
       <c r="Q504" s="4"/>
       <c r="R504" s="4"/>
     </row>
-    <row r="505" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -11409,7 +11400,7 @@
       <c r="Q505" s="4"/>
       <c r="R505" s="4"/>
     </row>
-    <row r="506" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -11429,7 +11420,7 @@
       <c r="Q506" s="4"/>
       <c r="R506" s="4"/>
     </row>
-    <row r="507" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -11449,7 +11440,7 @@
       <c r="Q507" s="4"/>
       <c r="R507" s="4"/>
     </row>
-    <row r="508" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -11469,7 +11460,7 @@
       <c r="Q508" s="4"/>
       <c r="R508" s="4"/>
     </row>
-    <row r="509" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -11489,7 +11480,7 @@
       <c r="Q509" s="4"/>
       <c r="R509" s="4"/>
     </row>
-    <row r="510" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -11509,7 +11500,7 @@
       <c r="Q510" s="4"/>
       <c r="R510" s="4"/>
     </row>
-    <row r="511" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -11529,7 +11520,7 @@
       <c r="Q511" s="4"/>
       <c r="R511" s="4"/>
     </row>
-    <row r="512" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -11549,7 +11540,7 @@
       <c r="Q512" s="4"/>
       <c r="R512" s="4"/>
     </row>
-    <row r="513" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -11569,7 +11560,7 @@
       <c r="Q513" s="4"/>
       <c r="R513" s="4"/>
     </row>
-    <row r="514" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -11589,7 +11580,7 @@
       <c r="Q514" s="4"/>
       <c r="R514" s="4"/>
     </row>
-    <row r="515" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -11609,7 +11600,7 @@
       <c r="Q515" s="4"/>
       <c r="R515" s="4"/>
     </row>
-    <row r="516" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -11629,7 +11620,7 @@
       <c r="Q516" s="4"/>
       <c r="R516" s="4"/>
     </row>
-    <row r="517" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -11649,7 +11640,7 @@
       <c r="Q517" s="4"/>
       <c r="R517" s="4"/>
     </row>
-    <row r="518" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -11669,7 +11660,7 @@
       <c r="Q518" s="4"/>
       <c r="R518" s="4"/>
     </row>
-    <row r="519" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -11689,7 +11680,7 @@
       <c r="Q519" s="4"/>
       <c r="R519" s="4"/>
     </row>
-    <row r="520" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -11709,7 +11700,7 @@
       <c r="Q520" s="4"/>
       <c r="R520" s="4"/>
     </row>
-    <row r="521" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -11729,7 +11720,7 @@
       <c r="Q521" s="4"/>
       <c r="R521" s="4"/>
     </row>
-    <row r="522" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -11749,7 +11740,7 @@
       <c r="Q522" s="4"/>
       <c r="R522" s="4"/>
     </row>
-    <row r="523" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -11769,7 +11760,7 @@
       <c r="Q523" s="4"/>
       <c r="R523" s="4"/>
     </row>
-    <row r="524" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -11789,7 +11780,7 @@
       <c r="Q524" s="4"/>
       <c r="R524" s="4"/>
     </row>
-    <row r="525" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -11809,7 +11800,7 @@
       <c r="Q525" s="4"/>
       <c r="R525" s="4"/>
     </row>
-    <row r="526" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -11829,7 +11820,7 @@
       <c r="Q526" s="4"/>
       <c r="R526" s="4"/>
     </row>
-    <row r="527" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -11849,7 +11840,7 @@
       <c r="Q527" s="4"/>
       <c r="R527" s="4"/>
     </row>
-    <row r="528" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -11869,7 +11860,7 @@
       <c r="Q528" s="4"/>
       <c r="R528" s="4"/>
     </row>
-    <row r="529" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -11889,7 +11880,7 @@
       <c r="Q529" s="4"/>
       <c r="R529" s="4"/>
     </row>
-    <row r="530" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -11909,7 +11900,7 @@
       <c r="Q530" s="4"/>
       <c r="R530" s="4"/>
     </row>
-    <row r="531" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -11929,7 +11920,7 @@
       <c r="Q531" s="4"/>
       <c r="R531" s="4"/>
     </row>
-    <row r="532" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -11949,7 +11940,7 @@
       <c r="Q532" s="4"/>
       <c r="R532" s="4"/>
     </row>
-    <row r="533" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -11969,7 +11960,7 @@
       <c r="Q533" s="4"/>
       <c r="R533" s="4"/>
     </row>
-    <row r="534" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -11989,7 +11980,7 @@
       <c r="Q534" s="4"/>
       <c r="R534" s="4"/>
     </row>
-    <row r="535" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -12009,7 +12000,7 @@
       <c r="Q535" s="4"/>
       <c r="R535" s="4"/>
     </row>
-    <row r="536" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -12029,7 +12020,7 @@
       <c r="Q536" s="4"/>
       <c r="R536" s="4"/>
     </row>
-    <row r="537" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -12049,7 +12040,7 @@
       <c r="Q537" s="4"/>
       <c r="R537" s="4"/>
     </row>
-    <row r="538" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -12069,7 +12060,7 @@
       <c r="Q538" s="4"/>
       <c r="R538" s="4"/>
     </row>
-    <row r="539" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -12089,7 +12080,7 @@
       <c r="Q539" s="4"/>
       <c r="R539" s="4"/>
     </row>
-    <row r="540" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -12109,7 +12100,7 @@
       <c r="Q540" s="4"/>
       <c r="R540" s="4"/>
     </row>
-    <row r="541" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -12129,7 +12120,7 @@
       <c r="Q541" s="4"/>
       <c r="R541" s="4"/>
     </row>
-    <row r="542" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -12149,7 +12140,7 @@
       <c r="Q542" s="4"/>
       <c r="R542" s="4"/>
     </row>
-    <row r="543" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -12169,7 +12160,7 @@
       <c r="Q543" s="4"/>
       <c r="R543" s="4"/>
     </row>
-    <row r="544" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -12189,7 +12180,7 @@
       <c r="Q544" s="4"/>
       <c r="R544" s="4"/>
     </row>
-    <row r="545" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -12209,7 +12200,7 @@
       <c r="Q545" s="4"/>
       <c r="R545" s="4"/>
     </row>
-    <row r="546" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -12229,7 +12220,7 @@
       <c r="Q546" s="4"/>
       <c r="R546" s="4"/>
     </row>
-    <row r="547" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -12249,7 +12240,7 @@
       <c r="Q547" s="4"/>
       <c r="R547" s="4"/>
     </row>
-    <row r="548" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -12269,7 +12260,7 @@
       <c r="Q548" s="4"/>
       <c r="R548" s="4"/>
     </row>
-    <row r="549" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -12289,7 +12280,7 @@
       <c r="Q549" s="4"/>
       <c r="R549" s="4"/>
     </row>
-    <row r="550" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -12309,7 +12300,7 @@
       <c r="Q550" s="4"/>
       <c r="R550" s="4"/>
     </row>
-    <row r="551" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -12329,7 +12320,7 @@
       <c r="Q551" s="4"/>
       <c r="R551" s="4"/>
     </row>
-    <row r="552" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -12349,7 +12340,7 @@
       <c r="Q552" s="4"/>
       <c r="R552" s="4"/>
     </row>
-    <row r="553" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -12369,7 +12360,7 @@
       <c r="Q553" s="4"/>
       <c r="R553" s="4"/>
     </row>
-    <row r="554" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -12389,7 +12380,7 @@
       <c r="Q554" s="4"/>
       <c r="R554" s="4"/>
     </row>
-    <row r="555" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -12409,7 +12400,7 @@
       <c r="Q555" s="4"/>
       <c r="R555" s="4"/>
     </row>
-    <row r="556" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -12429,7 +12420,7 @@
       <c r="Q556" s="4"/>
       <c r="R556" s="4"/>
     </row>
-    <row r="557" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -12449,7 +12440,7 @@
       <c r="Q557" s="4"/>
       <c r="R557" s="4"/>
     </row>
-    <row r="558" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -12469,7 +12460,7 @@
       <c r="Q558" s="4"/>
       <c r="R558" s="4"/>
     </row>
-    <row r="559" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -12489,7 +12480,7 @@
       <c r="Q559" s="4"/>
       <c r="R559" s="4"/>
     </row>
-    <row r="560" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -12509,7 +12500,7 @@
       <c r="Q560" s="4"/>
       <c r="R560" s="4"/>
     </row>
-    <row r="561" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -12529,7 +12520,7 @@
       <c r="Q561" s="4"/>
       <c r="R561" s="4"/>
     </row>
-    <row r="562" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -12549,7 +12540,7 @@
       <c r="Q562" s="4"/>
       <c r="R562" s="4"/>
     </row>
-    <row r="563" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -12569,7 +12560,7 @@
       <c r="Q563" s="4"/>
       <c r="R563" s="4"/>
     </row>
-    <row r="564" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -12589,7 +12580,7 @@
       <c r="Q564" s="4"/>
       <c r="R564" s="4"/>
     </row>
-    <row r="565" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -12609,7 +12600,7 @@
       <c r="Q565" s="4"/>
       <c r="R565" s="4"/>
     </row>
-    <row r="566" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -12629,7 +12620,7 @@
       <c r="Q566" s="4"/>
       <c r="R566" s="4"/>
     </row>
-    <row r="567" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -12649,7 +12640,7 @@
       <c r="Q567" s="4"/>
       <c r="R567" s="4"/>
     </row>
-    <row r="568" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -12669,7 +12660,7 @@
       <c r="Q568" s="4"/>
       <c r="R568" s="4"/>
     </row>
-    <row r="569" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -12689,7 +12680,7 @@
       <c r="Q569" s="4"/>
       <c r="R569" s="4"/>
     </row>
-    <row r="570" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -12709,7 +12700,7 @@
       <c r="Q570" s="4"/>
       <c r="R570" s="4"/>
     </row>
-    <row r="571" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -12729,7 +12720,7 @@
       <c r="Q571" s="4"/>
       <c r="R571" s="4"/>
     </row>
-    <row r="572" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -12749,7 +12740,7 @@
       <c r="Q572" s="4"/>
       <c r="R572" s="4"/>
     </row>
-    <row r="573" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -12769,7 +12760,7 @@
       <c r="Q573" s="4"/>
       <c r="R573" s="4"/>
     </row>
-    <row r="574" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -12789,7 +12780,7 @@
       <c r="Q574" s="4"/>
       <c r="R574" s="4"/>
     </row>
-    <row r="575" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -12809,7 +12800,7 @@
       <c r="Q575" s="4"/>
       <c r="R575" s="4"/>
     </row>
-    <row r="576" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -12829,7 +12820,7 @@
       <c r="Q576" s="4"/>
       <c r="R576" s="4"/>
     </row>
-    <row r="577" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -12849,7 +12840,7 @@
       <c r="Q577" s="4"/>
       <c r="R577" s="4"/>
     </row>
-    <row r="578" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -12869,7 +12860,7 @@
       <c r="Q578" s="4"/>
       <c r="R578" s="4"/>
     </row>
-    <row r="579" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -12889,7 +12880,7 @@
       <c r="Q579" s="4"/>
       <c r="R579" s="4"/>
     </row>
-    <row r="580" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -12909,7 +12900,7 @@
       <c r="Q580" s="4"/>
       <c r="R580" s="4"/>
     </row>
-    <row r="581" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -12929,7 +12920,7 @@
       <c r="Q581" s="4"/>
       <c r="R581" s="4"/>
     </row>
-    <row r="582" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -12949,7 +12940,7 @@
       <c r="Q582" s="4"/>
       <c r="R582" s="4"/>
     </row>
-    <row r="583" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -12969,7 +12960,7 @@
       <c r="Q583" s="4"/>
       <c r="R583" s="4"/>
     </row>
-    <row r="584" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -12989,7 +12980,7 @@
       <c r="Q584" s="4"/>
       <c r="R584" s="4"/>
     </row>
-    <row r="585" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -13009,7 +13000,7 @@
       <c r="Q585" s="4"/>
       <c r="R585" s="4"/>
     </row>
-    <row r="586" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -13029,7 +13020,7 @@
       <c r="Q586" s="4"/>
       <c r="R586" s="4"/>
     </row>
-    <row r="587" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -13049,7 +13040,7 @@
       <c r="Q587" s="4"/>
       <c r="R587" s="4"/>
     </row>
-    <row r="588" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -13069,7 +13060,7 @@
       <c r="Q588" s="4"/>
       <c r="R588" s="4"/>
     </row>
-    <row r="589" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -13089,7 +13080,7 @@
       <c r="Q589" s="4"/>
       <c r="R589" s="4"/>
     </row>
-    <row r="590" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -13109,7 +13100,7 @@
       <c r="Q590" s="4"/>
       <c r="R590" s="4"/>
     </row>
-    <row r="591" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -13129,7 +13120,7 @@
       <c r="Q591" s="4"/>
       <c r="R591" s="4"/>
     </row>
-    <row r="592" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -13149,7 +13140,7 @@
       <c r="Q592" s="4"/>
       <c r="R592" s="4"/>
     </row>
-    <row r="593" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -13169,7 +13160,7 @@
       <c r="Q593" s="4"/>
       <c r="R593" s="4"/>
     </row>
-    <row r="594" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -13189,7 +13180,7 @@
       <c r="Q594" s="4"/>
       <c r="R594" s="4"/>
     </row>
-    <row r="595" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -13209,7 +13200,7 @@
       <c r="Q595" s="4"/>
       <c r="R595" s="4"/>
     </row>
-    <row r="596" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -13229,7 +13220,7 @@
       <c r="Q596" s="4"/>
       <c r="R596" s="4"/>
     </row>
-    <row r="597" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -13249,7 +13240,7 @@
       <c r="Q597" s="4"/>
       <c r="R597" s="4"/>
     </row>
-    <row r="598" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -13269,7 +13260,7 @@
       <c r="Q598" s="4"/>
       <c r="R598" s="4"/>
     </row>
-    <row r="599" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -13289,7 +13280,7 @@
       <c r="Q599" s="4"/>
       <c r="R599" s="4"/>
     </row>
-    <row r="600" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -13309,7 +13300,7 @@
       <c r="Q600" s="4"/>
       <c r="R600" s="4"/>
     </row>
-    <row r="601" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -13329,7 +13320,7 @@
       <c r="Q601" s="4"/>
       <c r="R601" s="4"/>
     </row>
-    <row r="602" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -13349,7 +13340,7 @@
       <c r="Q602" s="4"/>
       <c r="R602" s="4"/>
     </row>
-    <row r="603" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -13369,7 +13360,7 @@
       <c r="Q603" s="4"/>
       <c r="R603" s="4"/>
     </row>
-    <row r="604" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -13389,7 +13380,7 @@
       <c r="Q604" s="4"/>
       <c r="R604" s="4"/>
     </row>
-    <row r="605" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -13409,7 +13400,7 @@
       <c r="Q605" s="4"/>
       <c r="R605" s="4"/>
     </row>
-    <row r="606" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -13429,7 +13420,7 @@
       <c r="Q606" s="4"/>
       <c r="R606" s="4"/>
     </row>
-    <row r="607" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -13449,7 +13440,7 @@
       <c r="Q607" s="4"/>
       <c r="R607" s="4"/>
     </row>
-    <row r="608" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -13469,7 +13460,7 @@
       <c r="Q608" s="4"/>
       <c r="R608" s="4"/>
     </row>
-    <row r="609" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -13489,7 +13480,7 @@
       <c r="Q609" s="4"/>
       <c r="R609" s="4"/>
     </row>
-    <row r="610" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -13509,7 +13500,7 @@
       <c r="Q610" s="4"/>
       <c r="R610" s="4"/>
     </row>
-    <row r="611" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -13529,7 +13520,7 @@
       <c r="Q611" s="4"/>
       <c r="R611" s="4"/>
     </row>
-    <row r="612" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -13549,7 +13540,7 @@
       <c r="Q612" s="4"/>
       <c r="R612" s="4"/>
     </row>
-    <row r="613" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -13569,7 +13560,7 @@
       <c r="Q613" s="4"/>
       <c r="R613" s="4"/>
     </row>
-    <row r="614" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -13589,7 +13580,7 @@
       <c r="Q614" s="4"/>
       <c r="R614" s="4"/>
     </row>
-    <row r="615" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -13609,7 +13600,7 @@
       <c r="Q615" s="4"/>
       <c r="R615" s="4"/>
     </row>
-    <row r="616" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -13629,7 +13620,7 @@
       <c r="Q616" s="4"/>
       <c r="R616" s="4"/>
     </row>
-    <row r="617" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -13649,7 +13640,7 @@
       <c r="Q617" s="4"/>
       <c r="R617" s="4"/>
     </row>
-    <row r="618" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -13669,7 +13660,7 @@
       <c r="Q618" s="4"/>
       <c r="R618" s="4"/>
     </row>
-    <row r="619" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -13689,7 +13680,7 @@
       <c r="Q619" s="4"/>
       <c r="R619" s="4"/>
     </row>
-    <row r="620" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -13709,7 +13700,7 @@
       <c r="Q620" s="4"/>
       <c r="R620" s="4"/>
     </row>
-    <row r="621" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -13729,7 +13720,7 @@
       <c r="Q621" s="4"/>
       <c r="R621" s="4"/>
     </row>
-    <row r="622" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -13749,7 +13740,7 @@
       <c r="Q622" s="4"/>
       <c r="R622" s="4"/>
     </row>
-    <row r="623" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -13769,7 +13760,7 @@
       <c r="Q623" s="4"/>
       <c r="R623" s="4"/>
     </row>
-    <row r="624" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -13789,7 +13780,7 @@
       <c r="Q624" s="4"/>
       <c r="R624" s="4"/>
     </row>
-    <row r="625" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -13809,7 +13800,7 @@
       <c r="Q625" s="4"/>
       <c r="R625" s="4"/>
     </row>
-    <row r="626" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -13829,7 +13820,7 @@
       <c r="Q626" s="4"/>
       <c r="R626" s="4"/>
     </row>
-    <row r="627" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -13849,7 +13840,7 @@
       <c r="Q627" s="4"/>
       <c r="R627" s="4"/>
     </row>
-    <row r="628" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -13869,7 +13860,7 @@
       <c r="Q628" s="4"/>
       <c r="R628" s="4"/>
     </row>
-    <row r="629" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -13889,7 +13880,7 @@
       <c r="Q629" s="4"/>
       <c r="R629" s="4"/>
     </row>
-    <row r="630" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -13909,7 +13900,7 @@
       <c r="Q630" s="4"/>
       <c r="R630" s="4"/>
     </row>
-    <row r="631" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -13929,7 +13920,7 @@
       <c r="Q631" s="4"/>
       <c r="R631" s="4"/>
     </row>
-    <row r="632" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -13949,7 +13940,7 @@
       <c r="Q632" s="4"/>
       <c r="R632" s="4"/>
     </row>
-    <row r="633" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -13969,7 +13960,7 @@
       <c r="Q633" s="4"/>
       <c r="R633" s="4"/>
     </row>
-    <row r="634" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -13989,7 +13980,7 @@
       <c r="Q634" s="4"/>
       <c r="R634" s="4"/>
     </row>
-    <row r="635" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -14009,7 +14000,7 @@
       <c r="Q635" s="4"/>
       <c r="R635" s="4"/>
     </row>
-    <row r="636" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -14029,7 +14020,7 @@
       <c r="Q636" s="4"/>
       <c r="R636" s="4"/>
     </row>
-    <row r="637" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -14049,7 +14040,7 @@
       <c r="Q637" s="4"/>
       <c r="R637" s="4"/>
     </row>
-    <row r="638" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -14069,7 +14060,7 @@
       <c r="Q638" s="4"/>
       <c r="R638" s="4"/>
     </row>
-    <row r="639" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -14089,7 +14080,7 @@
       <c r="Q639" s="4"/>
       <c r="R639" s="4"/>
     </row>
-    <row r="640" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -14109,7 +14100,7 @@
       <c r="Q640" s="4"/>
       <c r="R640" s="4"/>
     </row>
-    <row r="641" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -14129,7 +14120,7 @@
       <c r="Q641" s="4"/>
       <c r="R641" s="4"/>
     </row>
-    <row r="642" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -14149,7 +14140,7 @@
       <c r="Q642" s="4"/>
       <c r="R642" s="4"/>
     </row>
-    <row r="643" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -14169,7 +14160,7 @@
       <c r="Q643" s="4"/>
       <c r="R643" s="4"/>
     </row>
-    <row r="644" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -14189,7 +14180,7 @@
       <c r="Q644" s="4"/>
       <c r="R644" s="4"/>
     </row>
-    <row r="645" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -14209,7 +14200,7 @@
       <c r="Q645" s="4"/>
       <c r="R645" s="4"/>
     </row>
-    <row r="646" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -14229,7 +14220,7 @@
       <c r="Q646" s="4"/>
       <c r="R646" s="4"/>
     </row>
-    <row r="647" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -14249,7 +14240,7 @@
       <c r="Q647" s="4"/>
       <c r="R647" s="4"/>
     </row>
-    <row r="648" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -14269,7 +14260,7 @@
       <c r="Q648" s="4"/>
       <c r="R648" s="4"/>
     </row>
-    <row r="649" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -14289,7 +14280,7 @@
       <c r="Q649" s="4"/>
       <c r="R649" s="4"/>
     </row>
-    <row r="650" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -14309,7 +14300,7 @@
       <c r="Q650" s="4"/>
       <c r="R650" s="4"/>
     </row>
-    <row r="651" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -14329,7 +14320,7 @@
       <c r="Q651" s="4"/>
       <c r="R651" s="4"/>
     </row>
-    <row r="652" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -14349,7 +14340,7 @@
       <c r="Q652" s="4"/>
       <c r="R652" s="4"/>
     </row>
-    <row r="653" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -14369,7 +14360,7 @@
       <c r="Q653" s="4"/>
       <c r="R653" s="4"/>
     </row>
-    <row r="654" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -14389,7 +14380,7 @@
       <c r="Q654" s="4"/>
       <c r="R654" s="4"/>
     </row>
-    <row r="655" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -14409,7 +14400,7 @@
       <c r="Q655" s="4"/>
       <c r="R655" s="4"/>
     </row>
-    <row r="656" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -14429,7 +14420,7 @@
       <c r="Q656" s="4"/>
       <c r="R656" s="4"/>
     </row>
-    <row r="657" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -14449,7 +14440,7 @@
       <c r="Q657" s="4"/>
       <c r="R657" s="4"/>
     </row>
-    <row r="658" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -14469,7 +14460,7 @@
       <c r="Q658" s="4"/>
       <c r="R658" s="4"/>
     </row>
-    <row r="659" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -14489,7 +14480,7 @@
       <c r="Q659" s="4"/>
       <c r="R659" s="4"/>
     </row>
-    <row r="660" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -14509,7 +14500,7 @@
       <c r="Q660" s="4"/>
       <c r="R660" s="4"/>
     </row>
-    <row r="661" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -14529,7 +14520,7 @@
       <c r="Q661" s="4"/>
       <c r="R661" s="4"/>
     </row>
-    <row r="662" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -14549,7 +14540,7 @@
       <c r="Q662" s="4"/>
       <c r="R662" s="4"/>
     </row>
-    <row r="663" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -14569,7 +14560,7 @@
       <c r="Q663" s="4"/>
       <c r="R663" s="4"/>
     </row>
-    <row r="664" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -14589,7 +14580,7 @@
       <c r="Q664" s="4"/>
       <c r="R664" s="4"/>
     </row>
-    <row r="665" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -14609,7 +14600,7 @@
       <c r="Q665" s="4"/>
       <c r="R665" s="4"/>
     </row>
-    <row r="666" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -14629,7 +14620,7 @@
       <c r="Q666" s="4"/>
       <c r="R666" s="4"/>
     </row>
-    <row r="667" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -14649,7 +14640,7 @@
       <c r="Q667" s="4"/>
       <c r="R667" s="4"/>
     </row>
-    <row r="668" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -14669,7 +14660,7 @@
       <c r="Q668" s="4"/>
       <c r="R668" s="4"/>
     </row>
-    <row r="669" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -14689,7 +14680,7 @@
       <c r="Q669" s="4"/>
       <c r="R669" s="4"/>
     </row>
-    <row r="670" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -14709,7 +14700,7 @@
       <c r="Q670" s="4"/>
       <c r="R670" s="4"/>
     </row>
-    <row r="671" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -14729,7 +14720,7 @@
       <c r="Q671" s="4"/>
       <c r="R671" s="4"/>
     </row>
-    <row r="672" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -14749,7 +14740,7 @@
       <c r="Q672" s="4"/>
       <c r="R672" s="4"/>
     </row>
-    <row r="673" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -14769,7 +14760,7 @@
       <c r="Q673" s="4"/>
       <c r="R673" s="4"/>
     </row>
-    <row r="674" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -14789,7 +14780,7 @@
       <c r="Q674" s="4"/>
       <c r="R674" s="4"/>
     </row>
-    <row r="675" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -14809,7 +14800,7 @@
       <c r="Q675" s="4"/>
       <c r="R675" s="4"/>
     </row>
-    <row r="676" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -14829,7 +14820,7 @@
       <c r="Q676" s="4"/>
       <c r="R676" s="4"/>
     </row>
-    <row r="677" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -14849,7 +14840,7 @@
       <c r="Q677" s="4"/>
       <c r="R677" s="4"/>
     </row>
-    <row r="678" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -14869,7 +14860,7 @@
       <c r="Q678" s="4"/>
       <c r="R678" s="4"/>
     </row>
-    <row r="679" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -14889,7 +14880,7 @@
       <c r="Q679" s="4"/>
       <c r="R679" s="4"/>
     </row>
-    <row r="680" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -14909,7 +14900,7 @@
       <c r="Q680" s="4"/>
       <c r="R680" s="4"/>
     </row>
-    <row r="681" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -14929,7 +14920,7 @@
       <c r="Q681" s="4"/>
       <c r="R681" s="4"/>
     </row>
-    <row r="682" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -14949,7 +14940,7 @@
       <c r="Q682" s="4"/>
       <c r="R682" s="4"/>
     </row>
-    <row r="683" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -14969,7 +14960,7 @@
       <c r="Q683" s="4"/>
       <c r="R683" s="4"/>
     </row>
-    <row r="684" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -14989,7 +14980,7 @@
       <c r="Q684" s="4"/>
       <c r="R684" s="4"/>
     </row>
-    <row r="685" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -15009,7 +15000,7 @@
       <c r="Q685" s="4"/>
       <c r="R685" s="4"/>
     </row>
-    <row r="686" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -15029,7 +15020,7 @@
       <c r="Q686" s="4"/>
       <c r="R686" s="4"/>
     </row>
-    <row r="687" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -15049,7 +15040,7 @@
       <c r="Q687" s="4"/>
       <c r="R687" s="4"/>
     </row>
-    <row r="688" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -15069,7 +15060,7 @@
       <c r="Q688" s="4"/>
       <c r="R688" s="4"/>
     </row>
-    <row r="689" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -15089,7 +15080,7 @@
       <c r="Q689" s="4"/>
       <c r="R689" s="4"/>
     </row>
-    <row r="690" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -15109,7 +15100,7 @@
       <c r="Q690" s="4"/>
       <c r="R690" s="4"/>
     </row>
-    <row r="691" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -15129,7 +15120,7 @@
       <c r="Q691" s="4"/>
       <c r="R691" s="4"/>
     </row>
-    <row r="692" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -15149,7 +15140,7 @@
       <c r="Q692" s="4"/>
       <c r="R692" s="4"/>
     </row>
-    <row r="693" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -15169,7 +15160,7 @@
       <c r="Q693" s="4"/>
       <c r="R693" s="4"/>
     </row>
-    <row r="694" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -15189,7 +15180,7 @@
       <c r="Q694" s="4"/>
       <c r="R694" s="4"/>
     </row>
-    <row r="695" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -15209,7 +15200,7 @@
       <c r="Q695" s="4"/>
       <c r="R695" s="4"/>
     </row>
-    <row r="696" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -15229,7 +15220,7 @@
       <c r="Q696" s="4"/>
       <c r="R696" s="4"/>
     </row>
-    <row r="697" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -15249,7 +15240,7 @@
       <c r="Q697" s="4"/>
       <c r="R697" s="4"/>
     </row>
-    <row r="698" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -15269,7 +15260,7 @@
       <c r="Q698" s="4"/>
       <c r="R698" s="4"/>
     </row>
-    <row r="699" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -15289,7 +15280,7 @@
       <c r="Q699" s="4"/>
       <c r="R699" s="4"/>
     </row>
-    <row r="700" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -15309,7 +15300,7 @@
       <c r="Q700" s="4"/>
       <c r="R700" s="4"/>
     </row>
-    <row r="701" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -15329,7 +15320,7 @@
       <c r="Q701" s="4"/>
       <c r="R701" s="4"/>
     </row>
-    <row r="702" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -15349,7 +15340,7 @@
       <c r="Q702" s="4"/>
       <c r="R702" s="4"/>
     </row>
-    <row r="703" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -15369,7 +15360,7 @@
       <c r="Q703" s="4"/>
       <c r="R703" s="4"/>
     </row>
-    <row r="704" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -15389,7 +15380,7 @@
       <c r="Q704" s="4"/>
       <c r="R704" s="4"/>
     </row>
-    <row r="705" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -15409,7 +15400,7 @@
       <c r="Q705" s="4"/>
       <c r="R705" s="4"/>
     </row>
-    <row r="706" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -15429,7 +15420,7 @@
       <c r="Q706" s="4"/>
       <c r="R706" s="4"/>
     </row>
-    <row r="707" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -15449,7 +15440,7 @@
       <c r="Q707" s="4"/>
       <c r="R707" s="4"/>
     </row>
-    <row r="708" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -15469,7 +15460,7 @@
       <c r="Q708" s="4"/>
       <c r="R708" s="4"/>
     </row>
-    <row r="709" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -15489,7 +15480,7 @@
       <c r="Q709" s="4"/>
       <c r="R709" s="4"/>
     </row>
-    <row r="710" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -15509,7 +15500,7 @@
       <c r="Q710" s="4"/>
       <c r="R710" s="4"/>
     </row>
-    <row r="711" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -15529,7 +15520,7 @@
       <c r="Q711" s="4"/>
       <c r="R711" s="4"/>
     </row>
-    <row r="712" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -15549,7 +15540,7 @@
       <c r="Q712" s="4"/>
       <c r="R712" s="4"/>
     </row>
-    <row r="713" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -15569,7 +15560,7 @@
       <c r="Q713" s="4"/>
       <c r="R713" s="4"/>
     </row>
-    <row r="714" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -15589,7 +15580,7 @@
       <c r="Q714" s="4"/>
       <c r="R714" s="4"/>
     </row>
-    <row r="715" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -15609,7 +15600,7 @@
       <c r="Q715" s="4"/>
       <c r="R715" s="4"/>
     </row>
-    <row r="716" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -15629,7 +15620,7 @@
       <c r="Q716" s="4"/>
       <c r="R716" s="4"/>
     </row>
-    <row r="717" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -15649,7 +15640,7 @@
       <c r="Q717" s="4"/>
       <c r="R717" s="4"/>
     </row>
-    <row r="718" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -15669,7 +15660,7 @@
       <c r="Q718" s="4"/>
       <c r="R718" s="4"/>
     </row>
-    <row r="719" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -15689,7 +15680,7 @@
       <c r="Q719" s="4"/>
       <c r="R719" s="4"/>
     </row>
-    <row r="720" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -15709,7 +15700,7 @@
       <c r="Q720" s="4"/>
       <c r="R720" s="4"/>
     </row>
-    <row r="721" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -15729,7 +15720,7 @@
       <c r="Q721" s="4"/>
       <c r="R721" s="4"/>
     </row>
-    <row r="722" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -15749,7 +15740,7 @@
       <c r="Q722" s="4"/>
       <c r="R722" s="4"/>
     </row>
-    <row r="723" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -15769,7 +15760,7 @@
       <c r="Q723" s="4"/>
       <c r="R723" s="4"/>
     </row>
-    <row r="724" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -15789,7 +15780,7 @@
       <c r="Q724" s="4"/>
       <c r="R724" s="4"/>
     </row>
-    <row r="725" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -15809,7 +15800,7 @@
       <c r="Q725" s="4"/>
       <c r="R725" s="4"/>
     </row>
-    <row r="726" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -15829,7 +15820,7 @@
       <c r="Q726" s="4"/>
       <c r="R726" s="4"/>
     </row>
-    <row r="727" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -15849,7 +15840,7 @@
       <c r="Q727" s="4"/>
       <c r="R727" s="4"/>
     </row>
-    <row r="728" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -15869,7 +15860,7 @@
       <c r="Q728" s="4"/>
       <c r="R728" s="4"/>
     </row>
-    <row r="729" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -15889,7 +15880,7 @@
       <c r="Q729" s="4"/>
       <c r="R729" s="4"/>
     </row>
-    <row r="730" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -15909,7 +15900,7 @@
       <c r="Q730" s="4"/>
       <c r="R730" s="4"/>
     </row>
-    <row r="731" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -15929,7 +15920,7 @@
       <c r="Q731" s="4"/>
       <c r="R731" s="4"/>
     </row>
-    <row r="732" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -15949,7 +15940,7 @@
       <c r="Q732" s="4"/>
       <c r="R732" s="4"/>
     </row>
-    <row r="733" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -15969,7 +15960,7 @@
       <c r="Q733" s="4"/>
       <c r="R733" s="4"/>
     </row>
-    <row r="734" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -15989,7 +15980,7 @@
       <c r="Q734" s="4"/>
       <c r="R734" s="4"/>
     </row>
-    <row r="735" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -16009,7 +16000,7 @@
       <c r="Q735" s="4"/>
       <c r="R735" s="4"/>
     </row>
-    <row r="736" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -16029,7 +16020,7 @@
       <c r="Q736" s="4"/>
       <c r="R736" s="4"/>
     </row>
-    <row r="737" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -16049,7 +16040,7 @@
       <c r="Q737" s="4"/>
       <c r="R737" s="4"/>
     </row>
-    <row r="738" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -16069,7 +16060,7 @@
       <c r="Q738" s="4"/>
       <c r="R738" s="4"/>
     </row>
-    <row r="739" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -16089,7 +16080,7 @@
       <c r="Q739" s="4"/>
       <c r="R739" s="4"/>
     </row>
-    <row r="740" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -16109,7 +16100,7 @@
       <c r="Q740" s="4"/>
       <c r="R740" s="4"/>
     </row>
-    <row r="741" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -16129,7 +16120,7 @@
       <c r="Q741" s="4"/>
       <c r="R741" s="4"/>
     </row>
-    <row r="742" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -16149,7 +16140,7 @@
       <c r="Q742" s="4"/>
       <c r="R742" s="4"/>
     </row>
-    <row r="743" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -16169,7 +16160,7 @@
       <c r="Q743" s="4"/>
       <c r="R743" s="4"/>
     </row>
-    <row r="744" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -16189,7 +16180,7 @@
       <c r="Q744" s="4"/>
       <c r="R744" s="4"/>
     </row>
-    <row r="745" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -16209,7 +16200,7 @@
       <c r="Q745" s="4"/>
       <c r="R745" s="4"/>
     </row>
-    <row r="746" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -16229,7 +16220,7 @@
       <c r="Q746" s="4"/>
       <c r="R746" s="4"/>
     </row>
-    <row r="747" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -16249,7 +16240,7 @@
       <c r="Q747" s="4"/>
       <c r="R747" s="4"/>
     </row>
-    <row r="748" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -16269,7 +16260,7 @@
       <c r="Q748" s="4"/>
       <c r="R748" s="4"/>
     </row>
-    <row r="749" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -16289,7 +16280,7 @@
       <c r="Q749" s="4"/>
       <c r="R749" s="4"/>
     </row>
-    <row r="750" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -16309,7 +16300,7 @@
       <c r="Q750" s="4"/>
       <c r="R750" s="4"/>
     </row>
-    <row r="751" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -16329,7 +16320,7 @@
       <c r="Q751" s="4"/>
       <c r="R751" s="4"/>
     </row>
-    <row r="752" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -16349,7 +16340,7 @@
       <c r="Q752" s="4"/>
       <c r="R752" s="4"/>
     </row>
-    <row r="753" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -16369,7 +16360,7 @@
       <c r="Q753" s="4"/>
       <c r="R753" s="4"/>
     </row>
-    <row r="754" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -16389,7 +16380,7 @@
       <c r="Q754" s="4"/>
       <c r="R754" s="4"/>
     </row>
-    <row r="755" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -16409,7 +16400,7 @@
       <c r="Q755" s="4"/>
       <c r="R755" s="4"/>
     </row>
-    <row r="756" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -16429,7 +16420,7 @@
       <c r="Q756" s="4"/>
       <c r="R756" s="4"/>
     </row>
-    <row r="757" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -16449,7 +16440,7 @@
       <c r="Q757" s="4"/>
       <c r="R757" s="4"/>
     </row>
-    <row r="758" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -16469,7 +16460,7 @@
       <c r="Q758" s="4"/>
       <c r="R758" s="4"/>
     </row>
-    <row r="759" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -16489,7 +16480,7 @@
       <c r="Q759" s="4"/>
       <c r="R759" s="4"/>
     </row>
-    <row r="760" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -16509,7 +16500,7 @@
       <c r="Q760" s="4"/>
       <c r="R760" s="4"/>
     </row>
-    <row r="761" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -16529,7 +16520,7 @@
       <c r="Q761" s="4"/>
       <c r="R761" s="4"/>
     </row>
-    <row r="762" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -16549,7 +16540,7 @@
       <c r="Q762" s="4"/>
       <c r="R762" s="4"/>
     </row>
-    <row r="763" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -16569,7 +16560,7 @@
       <c r="Q763" s="4"/>
       <c r="R763" s="4"/>
     </row>
-    <row r="764" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -16589,7 +16580,7 @@
       <c r="Q764" s="4"/>
       <c r="R764" s="4"/>
     </row>
-    <row r="765" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -16609,7 +16600,7 @@
       <c r="Q765" s="4"/>
       <c r="R765" s="4"/>
     </row>
-    <row r="766" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -16629,7 +16620,7 @@
       <c r="Q766" s="4"/>
       <c r="R766" s="4"/>
     </row>
-    <row r="767" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -16649,7 +16640,7 @@
       <c r="Q767" s="4"/>
       <c r="R767" s="4"/>
     </row>
-    <row r="768" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -16669,7 +16660,7 @@
       <c r="Q768" s="4"/>
       <c r="R768" s="4"/>
     </row>
-    <row r="769" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -16689,7 +16680,7 @@
       <c r="Q769" s="4"/>
       <c r="R769" s="4"/>
     </row>
-    <row r="770" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -16709,7 +16700,7 @@
       <c r="Q770" s="4"/>
       <c r="R770" s="4"/>
     </row>
-    <row r="771" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -16729,7 +16720,7 @@
       <c r="Q771" s="4"/>
       <c r="R771" s="4"/>
     </row>
-    <row r="772" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -16749,7 +16740,7 @@
       <c r="Q772" s="4"/>
       <c r="R772" s="4"/>
     </row>
-    <row r="773" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -16769,7 +16760,7 @@
       <c r="Q773" s="4"/>
       <c r="R773" s="4"/>
     </row>
-    <row r="774" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -16789,7 +16780,7 @@
       <c r="Q774" s="4"/>
       <c r="R774" s="4"/>
     </row>
-    <row r="775" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -16809,7 +16800,7 @@
       <c r="Q775" s="4"/>
       <c r="R775" s="4"/>
     </row>
-    <row r="776" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -16829,7 +16820,7 @@
       <c r="Q776" s="4"/>
       <c r="R776" s="4"/>
     </row>
-    <row r="777" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -16849,7 +16840,7 @@
       <c r="Q777" s="4"/>
       <c r="R777" s="4"/>
     </row>
-    <row r="778" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -16869,7 +16860,7 @@
       <c r="Q778" s="4"/>
       <c r="R778" s="4"/>
     </row>
-    <row r="779" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -16889,7 +16880,7 @@
       <c r="Q779" s="4"/>
       <c r="R779" s="4"/>
     </row>
-    <row r="780" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -16909,7 +16900,7 @@
       <c r="Q780" s="4"/>
       <c r="R780" s="4"/>
     </row>
-    <row r="781" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -16929,7 +16920,7 @@
       <c r="Q781" s="4"/>
       <c r="R781" s="4"/>
     </row>
-    <row r="782" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -16949,7 +16940,7 @@
       <c r="Q782" s="4"/>
       <c r="R782" s="4"/>
     </row>
-    <row r="783" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -16969,7 +16960,7 @@
       <c r="Q783" s="4"/>
       <c r="R783" s="4"/>
     </row>
-    <row r="784" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -16989,7 +16980,7 @@
       <c r="Q784" s="4"/>
       <c r="R784" s="4"/>
     </row>
-    <row r="785" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -17009,7 +17000,7 @@
       <c r="Q785" s="4"/>
       <c r="R785" s="4"/>
     </row>
-    <row r="786" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -17029,7 +17020,7 @@
       <c r="Q786" s="4"/>
       <c r="R786" s="4"/>
     </row>
-    <row r="787" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -17049,7 +17040,7 @@
       <c r="Q787" s="4"/>
       <c r="R787" s="4"/>
     </row>
-    <row r="788" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -17069,7 +17060,7 @@
       <c r="Q788" s="4"/>
       <c r="R788" s="4"/>
     </row>
-    <row r="789" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -17089,7 +17080,7 @@
       <c r="Q789" s="4"/>
       <c r="R789" s="4"/>
     </row>
-    <row r="790" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -17109,7 +17100,7 @@
       <c r="Q790" s="4"/>
       <c r="R790" s="4"/>
     </row>
-    <row r="791" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -17129,7 +17120,7 @@
       <c r="Q791" s="4"/>
       <c r="R791" s="4"/>
     </row>
-    <row r="792" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -17149,7 +17140,7 @@
       <c r="Q792" s="4"/>
       <c r="R792" s="4"/>
     </row>
-    <row r="793" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -17169,7 +17160,7 @@
       <c r="Q793" s="4"/>
       <c r="R793" s="4"/>
     </row>
-    <row r="794" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -17189,7 +17180,7 @@
       <c r="Q794" s="4"/>
       <c r="R794" s="4"/>
     </row>
-    <row r="795" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -17209,7 +17200,7 @@
       <c r="Q795" s="4"/>
       <c r="R795" s="4"/>
     </row>
-    <row r="796" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -17229,7 +17220,7 @@
       <c r="Q796" s="4"/>
       <c r="R796" s="4"/>
     </row>
-    <row r="797" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -17249,7 +17240,7 @@
       <c r="Q797" s="4"/>
       <c r="R797" s="4"/>
     </row>
-    <row r="798" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -17269,7 +17260,7 @@
       <c r="Q798" s="4"/>
       <c r="R798" s="4"/>
     </row>
-    <row r="799" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -17289,7 +17280,7 @@
       <c r="Q799" s="4"/>
       <c r="R799" s="4"/>
     </row>
-    <row r="800" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -17309,7 +17300,7 @@
       <c r="Q800" s="4"/>
       <c r="R800" s="4"/>
     </row>
-    <row r="801" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -17329,7 +17320,7 @@
       <c r="Q801" s="4"/>
       <c r="R801" s="4"/>
     </row>
-    <row r="802" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -17349,7 +17340,7 @@
       <c r="Q802" s="4"/>
       <c r="R802" s="4"/>
     </row>
-    <row r="803" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -17369,7 +17360,7 @@
       <c r="Q803" s="4"/>
       <c r="R803" s="4"/>
     </row>
-    <row r="804" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -17389,7 +17380,7 @@
       <c r="Q804" s="4"/>
       <c r="R804" s="4"/>
     </row>
-    <row r="805" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -17409,7 +17400,7 @@
       <c r="Q805" s="4"/>
       <c r="R805" s="4"/>
     </row>
-    <row r="806" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -17429,7 +17420,7 @@
       <c r="Q806" s="4"/>
       <c r="R806" s="4"/>
     </row>
-    <row r="807" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -17449,7 +17440,7 @@
       <c r="Q807" s="4"/>
       <c r="R807" s="4"/>
     </row>
-    <row r="808" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -17469,7 +17460,7 @@
       <c r="Q808" s="4"/>
       <c r="R808" s="4"/>
     </row>
-    <row r="809" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -17489,7 +17480,7 @@
       <c r="Q809" s="4"/>
       <c r="R809" s="4"/>
     </row>
-    <row r="810" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -17509,7 +17500,7 @@
       <c r="Q810" s="4"/>
       <c r="R810" s="4"/>
     </row>
-    <row r="811" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -17529,7 +17520,7 @@
       <c r="Q811" s="4"/>
       <c r="R811" s="4"/>
     </row>
-    <row r="812" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -17549,7 +17540,7 @@
       <c r="Q812" s="4"/>
       <c r="R812" s="4"/>
     </row>
-    <row r="813" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -17569,7 +17560,7 @@
       <c r="Q813" s="4"/>
       <c r="R813" s="4"/>
     </row>
-    <row r="814" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -17589,7 +17580,7 @@
       <c r="Q814" s="4"/>
       <c r="R814" s="4"/>
     </row>
-    <row r="815" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -17609,7 +17600,7 @@
       <c r="Q815" s="4"/>
       <c r="R815" s="4"/>
     </row>
-    <row r="816" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -17629,7 +17620,7 @@
       <c r="Q816" s="4"/>
       <c r="R816" s="4"/>
     </row>
-    <row r="817" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -17649,7 +17640,7 @@
       <c r="Q817" s="4"/>
       <c r="R817" s="4"/>
     </row>
-    <row r="818" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -17669,7 +17660,7 @@
       <c r="Q818" s="4"/>
       <c r="R818" s="4"/>
     </row>
-    <row r="819" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -17689,7 +17680,7 @@
       <c r="Q819" s="4"/>
       <c r="R819" s="4"/>
     </row>
-    <row r="820" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -17709,7 +17700,7 @@
       <c r="Q820" s="4"/>
       <c r="R820" s="4"/>
     </row>
-    <row r="821" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -17729,7 +17720,7 @@
       <c r="Q821" s="4"/>
       <c r="R821" s="4"/>
     </row>
-    <row r="822" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -17749,7 +17740,7 @@
       <c r="Q822" s="4"/>
       <c r="R822" s="4"/>
     </row>
-    <row r="823" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -17769,7 +17760,7 @@
       <c r="Q823" s="4"/>
       <c r="R823" s="4"/>
     </row>
-    <row r="824" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -17789,7 +17780,7 @@
       <c r="Q824" s="4"/>
       <c r="R824" s="4"/>
     </row>
-    <row r="825" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -17809,7 +17800,7 @@
       <c r="Q825" s="4"/>
       <c r="R825" s="4"/>
     </row>
-    <row r="826" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -17829,7 +17820,7 @@
       <c r="Q826" s="4"/>
       <c r="R826" s="4"/>
     </row>
-    <row r="827" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -17849,7 +17840,7 @@
       <c r="Q827" s="4"/>
       <c r="R827" s="4"/>
     </row>
-    <row r="828" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -17869,7 +17860,7 @@
       <c r="Q828" s="4"/>
       <c r="R828" s="4"/>
     </row>
-    <row r="829" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -17889,7 +17880,7 @@
       <c r="Q829" s="4"/>
       <c r="R829" s="4"/>
     </row>
-    <row r="830" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -17909,7 +17900,7 @@
       <c r="Q830" s="4"/>
       <c r="R830" s="4"/>
     </row>
-    <row r="831" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -17929,7 +17920,7 @@
       <c r="Q831" s="4"/>
       <c r="R831" s="4"/>
     </row>
-    <row r="832" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -17949,7 +17940,7 @@
       <c r="Q832" s="4"/>
       <c r="R832" s="4"/>
     </row>
-    <row r="833" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -17969,7 +17960,7 @@
       <c r="Q833" s="4"/>
       <c r="R833" s="4"/>
     </row>
-    <row r="834" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -17989,7 +17980,7 @@
       <c r="Q834" s="4"/>
       <c r="R834" s="4"/>
     </row>
-    <row r="835" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -18009,7 +18000,7 @@
       <c r="Q835" s="4"/>
       <c r="R835" s="4"/>
     </row>
-    <row r="836" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -18029,7 +18020,7 @@
       <c r="Q836" s="4"/>
       <c r="R836" s="4"/>
     </row>
-    <row r="837" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -18049,7 +18040,7 @@
       <c r="Q837" s="4"/>
       <c r="R837" s="4"/>
     </row>
-    <row r="838" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -18069,7 +18060,7 @@
       <c r="Q838" s="4"/>
       <c r="R838" s="4"/>
     </row>
-    <row r="839" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -18089,7 +18080,7 @@
       <c r="Q839" s="4"/>
       <c r="R839" s="4"/>
     </row>
-    <row r="840" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -18109,7 +18100,7 @@
       <c r="Q840" s="4"/>
       <c r="R840" s="4"/>
     </row>
-    <row r="841" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -18129,7 +18120,7 @@
       <c r="Q841" s="4"/>
       <c r="R841" s="4"/>
     </row>
-    <row r="842" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -18149,7 +18140,7 @@
       <c r="Q842" s="4"/>
       <c r="R842" s="4"/>
     </row>
-    <row r="843" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -18169,7 +18160,7 @@
       <c r="Q843" s="4"/>
       <c r="R843" s="4"/>
     </row>
-    <row r="844" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -18189,7 +18180,7 @@
       <c r="Q844" s="4"/>
       <c r="R844" s="4"/>
     </row>
-    <row r="845" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -18209,7 +18200,7 @@
       <c r="Q845" s="4"/>
       <c r="R845" s="4"/>
     </row>
-    <row r="846" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -18229,7 +18220,7 @@
       <c r="Q846" s="4"/>
       <c r="R846" s="4"/>
     </row>
-    <row r="847" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -18249,7 +18240,7 @@
       <c r="Q847" s="4"/>
       <c r="R847" s="4"/>
     </row>
-    <row r="848" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -18269,7 +18260,7 @@
       <c r="Q848" s="4"/>
       <c r="R848" s="4"/>
     </row>
-    <row r="849" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -18289,7 +18280,7 @@
       <c r="Q849" s="4"/>
       <c r="R849" s="4"/>
     </row>
-    <row r="850" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -18309,7 +18300,7 @@
       <c r="Q850" s="4"/>
       <c r="R850" s="4"/>
     </row>
-    <row r="851" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -18329,7 +18320,7 @@
       <c r="Q851" s="4"/>
       <c r="R851" s="4"/>
     </row>
-    <row r="852" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -18349,7 +18340,7 @@
       <c r="Q852" s="4"/>
       <c r="R852" s="4"/>
     </row>
-    <row r="853" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -18369,7 +18360,7 @@
       <c r="Q853" s="4"/>
       <c r="R853" s="4"/>
     </row>
-    <row r="854" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -18389,7 +18380,7 @@
       <c r="Q854" s="4"/>
       <c r="R854" s="4"/>
     </row>
-    <row r="855" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -18409,7 +18400,7 @@
       <c r="Q855" s="4"/>
       <c r="R855" s="4"/>
     </row>
-    <row r="856" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -18429,7 +18420,7 @@
       <c r="Q856" s="4"/>
       <c r="R856" s="4"/>
     </row>
-    <row r="857" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -18449,7 +18440,7 @@
       <c r="Q857" s="4"/>
       <c r="R857" s="4"/>
     </row>
-    <row r="858" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -18469,7 +18460,7 @@
       <c r="Q858" s="4"/>
       <c r="R858" s="4"/>
     </row>
-    <row r="859" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -18489,7 +18480,7 @@
       <c r="Q859" s="4"/>
       <c r="R859" s="4"/>
     </row>
-    <row r="860" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -18509,7 +18500,7 @@
       <c r="Q860" s="4"/>
       <c r="R860" s="4"/>
     </row>
-    <row r="861" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -18529,7 +18520,7 @@
       <c r="Q861" s="4"/>
       <c r="R861" s="4"/>
     </row>
-    <row r="862" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -18549,7 +18540,7 @@
       <c r="Q862" s="4"/>
       <c r="R862" s="4"/>
     </row>
-    <row r="863" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -18569,7 +18560,7 @@
       <c r="Q863" s="4"/>
       <c r="R863" s="4"/>
     </row>
-    <row r="864" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -18589,7 +18580,7 @@
       <c r="Q864" s="4"/>
       <c r="R864" s="4"/>
     </row>
-    <row r="865" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -18609,7 +18600,7 @@
       <c r="Q865" s="4"/>
       <c r="R865" s="4"/>
     </row>
-    <row r="866" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -18629,7 +18620,7 @@
       <c r="Q866" s="4"/>
       <c r="R866" s="4"/>
     </row>
-    <row r="867" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -18649,7 +18640,7 @@
       <c r="Q867" s="4"/>
       <c r="R867" s="4"/>
     </row>
-    <row r="868" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -18669,7 +18660,7 @@
       <c r="Q868" s="4"/>
       <c r="R868" s="4"/>
     </row>
-    <row r="869" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -18689,7 +18680,7 @@
       <c r="Q869" s="4"/>
       <c r="R869" s="4"/>
     </row>
-    <row r="870" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -18709,7 +18700,7 @@
       <c r="Q870" s="4"/>
       <c r="R870" s="4"/>
     </row>
-    <row r="871" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -18729,7 +18720,7 @@
       <c r="Q871" s="4"/>
       <c r="R871" s="4"/>
     </row>
-    <row r="872" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -18749,7 +18740,7 @@
       <c r="Q872" s="4"/>
       <c r="R872" s="4"/>
     </row>
-    <row r="873" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -18769,7 +18760,7 @@
       <c r="Q873" s="4"/>
       <c r="R873" s="4"/>
     </row>
-    <row r="874" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -18789,7 +18780,7 @@
       <c r="Q874" s="4"/>
       <c r="R874" s="4"/>
     </row>
-    <row r="875" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -18809,7 +18800,7 @@
       <c r="Q875" s="4"/>
       <c r="R875" s="4"/>
     </row>
-    <row r="876" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -18829,7 +18820,7 @@
       <c r="Q876" s="4"/>
       <c r="R876" s="4"/>
     </row>
-    <row r="877" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -18849,7 +18840,7 @@
       <c r="Q877" s="4"/>
       <c r="R877" s="4"/>
     </row>
-    <row r="878" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -18869,7 +18860,7 @@
       <c r="Q878" s="4"/>
       <c r="R878" s="4"/>
     </row>
-    <row r="879" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -18889,7 +18880,7 @@
       <c r="Q879" s="4"/>
       <c r="R879" s="4"/>
     </row>
-    <row r="880" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -18909,7 +18900,7 @@
       <c r="Q880" s="4"/>
       <c r="R880" s="4"/>
     </row>
-    <row r="881" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -18929,7 +18920,7 @@
       <c r="Q881" s="4"/>
       <c r="R881" s="4"/>
     </row>
-    <row r="882" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -18949,7 +18940,7 @@
       <c r="Q882" s="4"/>
       <c r="R882" s="4"/>
     </row>
-    <row r="883" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -18969,7 +18960,7 @@
       <c r="Q883" s="4"/>
       <c r="R883" s="4"/>
     </row>
-    <row r="884" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -18989,7 +18980,7 @@
       <c r="Q884" s="4"/>
       <c r="R884" s="4"/>
     </row>
-    <row r="885" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -19009,7 +19000,7 @@
       <c r="Q885" s="4"/>
       <c r="R885" s="4"/>
     </row>
-    <row r="886" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -19029,7 +19020,7 @@
       <c r="Q886" s="4"/>
       <c r="R886" s="4"/>
     </row>
-    <row r="887" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -19049,7 +19040,7 @@
       <c r="Q887" s="4"/>
       <c r="R887" s="4"/>
     </row>
-    <row r="888" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -19069,7 +19060,7 @@
       <c r="Q888" s="4"/>
       <c r="R888" s="4"/>
     </row>
-    <row r="889" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -19089,7 +19080,7 @@
       <c r="Q889" s="4"/>
       <c r="R889" s="4"/>
     </row>
-    <row r="890" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -19109,7 +19100,7 @@
       <c r="Q890" s="4"/>
       <c r="R890" s="4"/>
     </row>
-    <row r="891" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -19129,7 +19120,7 @@
       <c r="Q891" s="4"/>
       <c r="R891" s="4"/>
     </row>
-    <row r="892" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -19149,7 +19140,7 @@
       <c r="Q892" s="4"/>
       <c r="R892" s="4"/>
     </row>
-    <row r="893" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -19169,7 +19160,7 @@
       <c r="Q893" s="4"/>
       <c r="R893" s="4"/>
     </row>
-    <row r="894" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -19189,7 +19180,7 @@
       <c r="Q894" s="4"/>
       <c r="R894" s="4"/>
     </row>
-    <row r="895" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -19209,7 +19200,7 @@
       <c r="Q895" s="4"/>
       <c r="R895" s="4"/>
     </row>
-    <row r="896" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -19229,7 +19220,7 @@
       <c r="Q896" s="4"/>
       <c r="R896" s="4"/>
     </row>
-    <row r="897" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -19249,7 +19240,7 @@
       <c r="Q897" s="4"/>
       <c r="R897" s="4"/>
     </row>
-    <row r="898" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -19269,7 +19260,7 @@
       <c r="Q898" s="4"/>
       <c r="R898" s="4"/>
     </row>
-    <row r="899" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -19289,7 +19280,7 @@
       <c r="Q899" s="4"/>
       <c r="R899" s="4"/>
     </row>
-    <row r="900" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -19309,7 +19300,7 @@
       <c r="Q900" s="4"/>
       <c r="R900" s="4"/>
     </row>
-    <row r="901" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -19329,7 +19320,7 @@
       <c r="Q901" s="4"/>
       <c r="R901" s="4"/>
     </row>
-    <row r="902" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -19349,7 +19340,7 @@
       <c r="Q902" s="4"/>
       <c r="R902" s="4"/>
     </row>
-    <row r="903" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -19369,7 +19360,7 @@
       <c r="Q903" s="4"/>
       <c r="R903" s="4"/>
     </row>
-    <row r="904" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -19389,7 +19380,7 @@
       <c r="Q904" s="4"/>
       <c r="R904" s="4"/>
     </row>
-    <row r="905" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -19409,7 +19400,7 @@
       <c r="Q905" s="4"/>
       <c r="R905" s="4"/>
     </row>
-    <row r="906" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -19429,7 +19420,7 @@
       <c r="Q906" s="4"/>
       <c r="R906" s="4"/>
     </row>
-    <row r="907" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -19449,7 +19440,7 @@
       <c r="Q907" s="4"/>
       <c r="R907" s="4"/>
     </row>
-    <row r="908" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -19469,7 +19460,7 @@
       <c r="Q908" s="4"/>
       <c r="R908" s="4"/>
     </row>
-    <row r="909" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -19489,7 +19480,7 @@
       <c r="Q909" s="4"/>
       <c r="R909" s="4"/>
     </row>
-    <row r="910" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -19509,7 +19500,7 @@
       <c r="Q910" s="4"/>
       <c r="R910" s="4"/>
     </row>
-    <row r="911" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -19529,7 +19520,7 @@
       <c r="Q911" s="4"/>
       <c r="R911" s="4"/>
     </row>
-    <row r="912" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -19549,7 +19540,7 @@
       <c r="Q912" s="4"/>
       <c r="R912" s="4"/>
     </row>
-    <row r="913" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -19569,7 +19560,7 @@
       <c r="Q913" s="4"/>
       <c r="R913" s="4"/>
     </row>
-    <row r="914" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -19589,7 +19580,7 @@
       <c r="Q914" s="4"/>
       <c r="R914" s="4"/>
     </row>
-    <row r="915" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -19609,7 +19600,7 @@
       <c r="Q915" s="4"/>
       <c r="R915" s="4"/>
     </row>
-    <row r="916" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -19629,7 +19620,7 @@
       <c r="Q916" s="4"/>
       <c r="R916" s="4"/>
     </row>
-    <row r="917" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -19649,7 +19640,7 @@
       <c r="Q917" s="4"/>
       <c r="R917" s="4"/>
     </row>
-    <row r="918" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -19669,7 +19660,7 @@
       <c r="Q918" s="4"/>
       <c r="R918" s="4"/>
     </row>
-    <row r="919" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -19689,7 +19680,7 @@
       <c r="Q919" s="4"/>
       <c r="R919" s="4"/>
     </row>
-    <row r="920" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -19709,7 +19700,7 @@
       <c r="Q920" s="4"/>
       <c r="R920" s="4"/>
     </row>
-    <row r="921" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -19729,7 +19720,7 @@
       <c r="Q921" s="4"/>
       <c r="R921" s="4"/>
     </row>
-    <row r="922" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -19749,7 +19740,7 @@
       <c r="Q922" s="4"/>
       <c r="R922" s="4"/>
     </row>
-    <row r="923" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -19769,7 +19760,7 @@
       <c r="Q923" s="4"/>
       <c r="R923" s="4"/>
     </row>
-    <row r="924" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -19789,7 +19780,7 @@
       <c r="Q924" s="4"/>
       <c r="R924" s="4"/>
     </row>
-    <row r="925" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -19809,7 +19800,7 @@
       <c r="Q925" s="4"/>
       <c r="R925" s="4"/>
     </row>
-    <row r="926" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -19829,7 +19820,7 @@
       <c r="Q926" s="4"/>
       <c r="R926" s="4"/>
     </row>
-    <row r="927" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -19849,7 +19840,7 @@
       <c r="Q927" s="4"/>
       <c r="R927" s="4"/>
     </row>
-    <row r="928" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -19869,7 +19860,7 @@
       <c r="Q928" s="4"/>
       <c r="R928" s="4"/>
     </row>
-    <row r="929" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -19889,7 +19880,7 @@
       <c r="Q929" s="4"/>
       <c r="R929" s="4"/>
     </row>
-    <row r="930" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -19909,7 +19900,7 @@
       <c r="Q930" s="4"/>
       <c r="R930" s="4"/>
     </row>
-    <row r="931" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -19929,7 +19920,7 @@
       <c r="Q931" s="4"/>
       <c r="R931" s="4"/>
     </row>
-    <row r="932" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -19949,7 +19940,7 @@
       <c r="Q932" s="4"/>
       <c r="R932" s="4"/>
     </row>
-    <row r="933" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -19969,7 +19960,7 @@
       <c r="Q933" s="4"/>
       <c r="R933" s="4"/>
     </row>
-    <row r="934" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -19989,7 +19980,7 @@
       <c r="Q934" s="4"/>
       <c r="R934" s="4"/>
     </row>
-    <row r="935" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -20009,7 +20000,7 @@
       <c r="Q935" s="4"/>
       <c r="R935" s="4"/>
     </row>
-    <row r="936" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -20029,7 +20020,7 @@
       <c r="Q936" s="4"/>
       <c r="R936" s="4"/>
     </row>
-    <row r="937" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -20049,7 +20040,7 @@
       <c r="Q937" s="4"/>
       <c r="R937" s="4"/>
     </row>
-    <row r="938" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -20069,7 +20060,7 @@
       <c r="Q938" s="4"/>
       <c r="R938" s="4"/>
     </row>
-    <row r="939" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -20089,7 +20080,7 @@
       <c r="Q939" s="4"/>
       <c r="R939" s="4"/>
     </row>
-    <row r="940" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -20109,7 +20100,7 @@
       <c r="Q940" s="4"/>
       <c r="R940" s="4"/>
     </row>
-    <row r="941" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -20129,7 +20120,7 @@
       <c r="Q941" s="4"/>
       <c r="R941" s="4"/>
     </row>
-    <row r="942" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -20149,7 +20140,7 @@
       <c r="Q942" s="4"/>
       <c r="R942" s="4"/>
     </row>
-    <row r="943" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -20169,7 +20160,7 @@
       <c r="Q943" s="4"/>
       <c r="R943" s="4"/>
     </row>
-    <row r="944" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -20189,7 +20180,7 @@
       <c r="Q944" s="4"/>
       <c r="R944" s="4"/>
     </row>
-    <row r="945" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -20209,7 +20200,7 @@
       <c r="Q945" s="4"/>
       <c r="R945" s="4"/>
     </row>
-    <row r="946" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -20229,7 +20220,7 @@
       <c r="Q946" s="4"/>
       <c r="R946" s="4"/>
     </row>
-    <row r="947" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -20249,7 +20240,7 @@
       <c r="Q947" s="4"/>
       <c r="R947" s="4"/>
     </row>
-    <row r="948" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -20269,7 +20260,7 @@
       <c r="Q948" s="4"/>
       <c r="R948" s="4"/>
     </row>
-    <row r="949" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -20289,7 +20280,7 @@
       <c r="Q949" s="4"/>
       <c r="R949" s="4"/>
     </row>
-    <row r="950" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -20309,7 +20300,7 @@
       <c r="Q950" s="4"/>
       <c r="R950" s="4"/>
     </row>
-    <row r="951" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -20329,7 +20320,7 @@
       <c r="Q951" s="4"/>
       <c r="R951" s="4"/>
     </row>
-    <row r="952" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -20349,7 +20340,7 @@
       <c r="Q952" s="4"/>
       <c r="R952" s="4"/>
     </row>
-    <row r="953" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -20369,7 +20360,7 @@
       <c r="Q953" s="4"/>
       <c r="R953" s="4"/>
     </row>
-    <row r="954" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -20389,7 +20380,7 @@
       <c r="Q954" s="4"/>
       <c r="R954" s="4"/>
     </row>
-    <row r="955" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -20409,7 +20400,7 @@
       <c r="Q955" s="4"/>
       <c r="R955" s="4"/>
     </row>
-    <row r="956" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -20429,7 +20420,7 @@
       <c r="Q956" s="4"/>
       <c r="R956" s="4"/>
     </row>
-    <row r="957" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -20449,7 +20440,7 @@
       <c r="Q957" s="4"/>
       <c r="R957" s="4"/>
     </row>
-    <row r="958" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -20469,7 +20460,7 @@
       <c r="Q958" s="4"/>
       <c r="R958" s="4"/>
     </row>
-    <row r="959" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -20489,7 +20480,7 @@
       <c r="Q959" s="4"/>
       <c r="R959" s="4"/>
     </row>
-    <row r="960" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -20509,7 +20500,7 @@
       <c r="Q960" s="4"/>
       <c r="R960" s="4"/>
     </row>
-    <row r="961" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -20529,7 +20520,7 @@
       <c r="Q961" s="4"/>
       <c r="R961" s="4"/>
     </row>
-    <row r="962" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -20549,7 +20540,7 @@
       <c r="Q962" s="4"/>
       <c r="R962" s="4"/>
     </row>
-    <row r="963" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -20569,7 +20560,7 @@
       <c r="Q963" s="4"/>
       <c r="R963" s="4"/>
     </row>
-    <row r="964" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -20589,7 +20580,7 @@
       <c r="Q964" s="4"/>
       <c r="R964" s="4"/>
     </row>
-    <row r="965" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -20609,7 +20600,7 @@
       <c r="Q965" s="4"/>
       <c r="R965" s="4"/>
     </row>
-    <row r="966" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -20629,7 +20620,7 @@
       <c r="Q966" s="4"/>
       <c r="R966" s="4"/>
     </row>
-    <row r="967" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -20649,7 +20640,7 @@
       <c r="Q967" s="4"/>
       <c r="R967" s="4"/>
     </row>
-    <row r="968" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -20669,7 +20660,7 @@
       <c r="Q968" s="4"/>
       <c r="R968" s="4"/>
     </row>
-    <row r="969" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -20689,7 +20680,7 @@
       <c r="Q969" s="4"/>
       <c r="R969" s="4"/>
     </row>
-    <row r="970" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -20709,7 +20700,7 @@
       <c r="Q970" s="4"/>
       <c r="R970" s="4"/>
     </row>
-    <row r="971" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -20729,7 +20720,7 @@
       <c r="Q971" s="4"/>
       <c r="R971" s="4"/>
     </row>
-    <row r="972" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -20749,7 +20740,7 @@
       <c r="Q972" s="4"/>
       <c r="R972" s="4"/>
     </row>
-    <row r="973" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -20769,7 +20760,7 @@
       <c r="Q973" s="4"/>
       <c r="R973" s="4"/>
     </row>
-    <row r="974" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -20789,7 +20780,7 @@
       <c r="Q974" s="4"/>
       <c r="R974" s="4"/>
     </row>
-    <row r="975" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -20809,7 +20800,7 @@
       <c r="Q975" s="4"/>
       <c r="R975" s="4"/>
     </row>
-    <row r="976" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -20829,7 +20820,7 @@
       <c r="Q976" s="4"/>
       <c r="R976" s="4"/>
     </row>
-    <row r="977" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -20849,7 +20840,7 @@
       <c r="Q977" s="4"/>
       <c r="R977" s="4"/>
     </row>
-    <row r="978" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -20869,7 +20860,7 @@
       <c r="Q978" s="4"/>
       <c r="R978" s="4"/>
     </row>
-    <row r="979" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -20889,7 +20880,7 @@
       <c r="Q979" s="4"/>
       <c r="R979" s="4"/>
     </row>
-    <row r="980" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -20909,7 +20900,7 @@
       <c r="Q980" s="4"/>
       <c r="R980" s="4"/>
     </row>
-    <row r="981" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -20929,7 +20920,7 @@
       <c r="Q981" s="4"/>
       <c r="R981" s="4"/>
     </row>
-    <row r="982" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -20949,7 +20940,7 @@
       <c r="Q982" s="4"/>
       <c r="R982" s="4"/>
     </row>
-    <row r="983" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -20969,7 +20960,7 @@
       <c r="Q983" s="4"/>
       <c r="R983" s="4"/>
     </row>
-    <row r="984" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -20989,7 +20980,7 @@
       <c r="Q984" s="4"/>
       <c r="R984" s="4"/>
     </row>
-    <row r="985" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -21009,7 +21000,7 @@
       <c r="Q985" s="4"/>
       <c r="R985" s="4"/>
     </row>
-    <row r="986" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -21029,7 +21020,7 @@
       <c r="Q986" s="4"/>
       <c r="R986" s="4"/>
     </row>
-    <row r="987" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -21049,7 +21040,7 @@
       <c r="Q987" s="4"/>
       <c r="R987" s="4"/>
     </row>
-    <row r="988" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -21069,7 +21060,7 @@
       <c r="Q988" s="4"/>
       <c r="R988" s="4"/>
     </row>
-    <row r="989" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -21089,7 +21080,7 @@
       <c r="Q989" s="4"/>
       <c r="R989" s="4"/>
     </row>
-    <row r="990" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -21109,7 +21100,7 @@
       <c r="Q990" s="4"/>
       <c r="R990" s="4"/>
     </row>
-    <row r="991" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -21129,7 +21120,7 @@
       <c r="Q991" s="4"/>
       <c r="R991" s="4"/>
     </row>
-    <row r="992" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -21149,7 +21140,7 @@
       <c r="Q992" s="4"/>
       <c r="R992" s="4"/>
     </row>
-    <row r="993" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -21169,7 +21160,7 @@
       <c r="Q993" s="4"/>
       <c r="R993" s="4"/>
     </row>
-    <row r="994" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -21189,7 +21180,7 @@
       <c r="Q994" s="4"/>
       <c r="R994" s="4"/>
     </row>
-    <row r="995" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -21209,7 +21200,7 @@
       <c r="Q995" s="4"/>
       <c r="R995" s="4"/>
     </row>
-    <row r="996" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -21229,7 +21220,7 @@
       <c r="Q996" s="4"/>
       <c r="R996" s="4"/>
     </row>
-    <row r="997" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -21249,7 +21240,7 @@
       <c r="Q997" s="4"/>
       <c r="R997" s="4"/>
     </row>
-    <row r="998" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -21269,7 +21260,7 @@
       <c r="Q998" s="4"/>
       <c r="R998" s="4"/>
     </row>
-    <row r="999" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -21289,7 +21280,7 @@
       <c r="Q999" s="4"/>
       <c r="R999" s="4"/>
     </row>
-    <row r="1000" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
@@ -21309,7 +21300,7 @@
       <c r="Q1000" s="4"/>
       <c r="R1000" s="4"/>
     </row>
-    <row r="1001" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1001" s="4"/>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
@@ -21329,7 +21320,7 @@
       <c r="Q1001" s="4"/>
       <c r="R1001" s="4"/>
     </row>
-    <row r="1002" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1002" s="4"/>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
@@ -21349,7 +21340,7 @@
       <c r="Q1002" s="4"/>
       <c r="R1002" s="4"/>
     </row>
-    <row r="1003" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1003" s="4"/>
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
@@ -21371,6 +21362,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:M19"/>
@@ -21386,18 +21389,6 @@
     <mergeCell ref="B13:R13"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="A17:R17"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
